--- a/請求書_2024年07月/請求書_2024年07月.xlsx
+++ b/請求書_2024年07月/請求書_2024年07月.xlsx
@@ -2,39 +2,153 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="請求書" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="株式会社A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="株式会社B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="株式会社D" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="株式会社E" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="株式会社F" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'請求書'!$A$1:$Q$34</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\)"/>
+  </numFmts>
+  <fonts count="13">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="20"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="18"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -42,17 +156,467 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="87">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="5">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+    <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
+    <cellStyle name="通貨" xfId="3" builtinId="7"/>
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -124,8 +688,204 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>14</col>
+      <colOff>314325</colOff>
+      <row>3</row>
+      <rowOff>276225</rowOff>
+    </from>
+    <to>
+      <col>16</col>
+      <colOff>266700</colOff>
+      <row>7</row>
+      <rowOff>25400</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="図 2"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="6378575" y="1146175"/>
+          <a:ext cx="815975" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,12 +927,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,14 +959,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,6 +994,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,19 +1170,5539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="5.58203125" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col width="5.58203125" customWidth="1" style="43" min="1" max="8"/>
+    <col width="5.83203125" bestFit="1" customWidth="1" style="43" min="9" max="9"/>
+    <col width="5.58203125" customWidth="1" style="43" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="62">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
+      <c r="E1" s="63" t="n"/>
+      <c r="F1" s="63" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="63" t="n"/>
+      <c r="I1" s="63" t="n"/>
+      <c r="J1" s="63" t="n"/>
+      <c r="K1" s="63" t="n"/>
+      <c r="L1" s="63" t="n"/>
+      <c r="M1" s="63" t="n"/>
+      <c r="N1" s="63" t="n"/>
+      <c r="O1" s="63" t="n"/>
+      <c r="P1" s="63" t="n"/>
+      <c r="Q1" s="63" t="n"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="62">
+      <c r="A2" s="19" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="M2" s="63" t="n"/>
+      <c r="N2" s="15" t="n"/>
+      <c r="O2" s="63" t="n"/>
+      <c r="P2" s="63" t="n"/>
+      <c r="Q2" s="63" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="62">
+      <c r="A3" s="64" t="n"/>
+      <c r="B3" s="64" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="I3" s="63" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="M3" s="63" t="n"/>
+      <c r="N3" s="65" t="n"/>
+      <c r="O3" s="63" t="n"/>
+      <c r="P3" s="63" t="n"/>
+      <c r="Q3" s="63" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" s="62">
+      <c r="A4" s="44" t="n"/>
+      <c r="B4" s="66" t="n"/>
+      <c r="C4" s="66" t="n"/>
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n"/>
+      <c r="F4" s="66" t="n"/>
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="J4" s="36" t="n"/>
+      <c r="K4" s="36" t="n"/>
+      <c r="L4" s="36" t="n"/>
+      <c r="M4" s="36" t="n"/>
+      <c r="N4" s="36" t="n"/>
+      <c r="O4" s="36" t="n"/>
+      <c r="P4" s="36" t="n"/>
+      <c r="Q4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="20.15" customHeight="1" s="62">
+      <c r="A5" s="2" t="n"/>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="63" t="n"/>
+      <c r="N5" s="61" t="n"/>
+      <c r="O5" s="61" t="n"/>
+      <c r="P5" s="61" t="n"/>
+      <c r="Q5" s="61" t="n"/>
+    </row>
+    <row r="6" ht="20.15" customHeight="1" s="62">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="B6" s="63" t="n"/>
+      <c r="C6" s="63" t="n"/>
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="63" t="n"/>
+      <c r="H6" s="63" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+      <c r="L6" s="63" t="n"/>
+      <c r="M6" s="63" t="n"/>
+      <c r="N6" s="63" t="n"/>
+      <c r="O6" s="63" t="n"/>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="63" t="n"/>
+    </row>
+    <row r="7" ht="20.15" customHeight="1" s="62">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="45" t="n"/>
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="64" t="n"/>
+      <c r="E7" s="64" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="43" t="n"/>
+      <c r="I7" s="43" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+      <c r="L7" s="63" t="n"/>
+      <c r="M7" s="63" t="n"/>
+      <c r="N7" s="63" t="n"/>
+      <c r="O7" s="63" t="n"/>
+      <c r="P7" s="63" t="n"/>
+      <c r="Q7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="20.15" customHeight="1" s="62">
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="n"/>
+      <c r="M8" s="15" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+      <c r="N8" s="63" t="n"/>
+      <c r="O8" s="63" t="n"/>
+      <c r="P8" s="63" t="n"/>
+      <c r="Q8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="20.15" customHeight="1" s="62">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="14" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="L9" s="63" t="n"/>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+      <c r="N9" s="63" t="n"/>
+      <c r="O9" s="63" t="n"/>
+      <c r="P9" s="63" t="n"/>
+      <c r="Q9" s="63" t="n"/>
+    </row>
+    <row r="10" ht="20.15" customHeight="1" s="62" thickBot="1">
+      <c r="A10" s="68" t="n"/>
+      <c r="B10" s="68" t="n"/>
+      <c r="C10" s="68" t="n"/>
+      <c r="D10" s="68" t="n"/>
+      <c r="E10" s="68" t="n"/>
+      <c r="F10" s="68" t="n"/>
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="68" t="n"/>
+      <c r="I10" s="68" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="L10" s="63" t="n"/>
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+      <c r="N10" s="63" t="n"/>
+      <c r="O10" s="63" t="n"/>
+      <c r="P10" s="63" t="n"/>
+      <c r="Q10" s="63" t="n"/>
+    </row>
+    <row r="11" ht="20.15" customHeight="1" s="62" thickTop="1">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="L11" s="63" t="n"/>
+      <c r="M11" s="15" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+      <c r="N11" s="63" t="n"/>
+      <c r="O11" s="63" t="n"/>
+      <c r="P11" s="63" t="n"/>
+      <c r="Q11" s="63" t="n"/>
+    </row>
+    <row r="12" ht="10" customHeight="1" s="62">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" s="62">
+      <c r="A13" s="20" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="69" t="n"/>
+      <c r="C13" s="69" t="n"/>
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="69" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="69" t="n"/>
+      <c r="H13" s="69" t="n"/>
+      <c r="I13" s="70" t="n"/>
+      <c r="J13" s="20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="70" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="69" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="69" t="n"/>
+      <c r="Q13" s="70" t="n"/>
+    </row>
+    <row r="14" ht="20.15" customHeight="1" s="62">
+      <c r="A14" s="71" t="inlineStr">
+        <is>
+          <t>サンプル1</t>
+        </is>
+      </c>
+      <c r="B14" s="69" t="n"/>
+      <c r="C14" s="69" t="n"/>
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="69" t="n"/>
+      <c r="F14" s="69" t="n"/>
+      <c r="G14" s="69" t="n"/>
+      <c r="H14" s="69" t="n"/>
+      <c r="I14" s="70" t="n"/>
+      <c r="J14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="46" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L14" s="72" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M14" s="69" t="n"/>
+      <c r="N14" s="70" t="n"/>
+      <c r="O14" s="73" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P14" s="74" t="n"/>
+      <c r="Q14" s="75" t="n"/>
+    </row>
+    <row r="15" ht="20.15" customHeight="1" s="62">
+      <c r="A15" s="71" t="n"/>
+      <c r="B15" s="69" t="n"/>
+      <c r="C15" s="69" t="n"/>
+      <c r="D15" s="69" t="n"/>
+      <c r="E15" s="69" t="n"/>
+      <c r="F15" s="69" t="n"/>
+      <c r="G15" s="69" t="n"/>
+      <c r="H15" s="69" t="n"/>
+      <c r="I15" s="70" t="n"/>
+      <c r="J15" s="4" t="n"/>
+      <c r="K15" s="8" t="n"/>
+      <c r="L15" s="72" t="n"/>
+      <c r="M15" s="69" t="n"/>
+      <c r="N15" s="70" t="n"/>
+      <c r="O15" s="73" t="str"/>
+      <c r="P15" s="74" t="n"/>
+      <c r="Q15" s="75" t="n"/>
+    </row>
+    <row r="16" ht="20.15" customHeight="1" s="62">
+      <c r="A16" s="71" t="n"/>
+      <c r="B16" s="69" t="n"/>
+      <c r="C16" s="69" t="n"/>
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="69" t="n"/>
+      <c r="F16" s="69" t="n"/>
+      <c r="G16" s="69" t="n"/>
+      <c r="H16" s="69" t="n"/>
+      <c r="I16" s="70" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="72" t="n"/>
+      <c r="M16" s="69" t="n"/>
+      <c r="N16" s="70" t="n"/>
+      <c r="O16" s="73" t="str"/>
+      <c r="P16" s="74" t="n"/>
+      <c r="Q16" s="75" t="n"/>
+    </row>
+    <row r="17" ht="20.15" customHeight="1" s="62">
+      <c r="A17" s="71" t="n"/>
+      <c r="B17" s="69" t="n"/>
+      <c r="C17" s="69" t="n"/>
+      <c r="D17" s="69" t="n"/>
+      <c r="E17" s="69" t="n"/>
+      <c r="F17" s="69" t="n"/>
+      <c r="G17" s="69" t="n"/>
+      <c r="H17" s="69" t="n"/>
+      <c r="I17" s="70" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="72" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="70" t="n"/>
+      <c r="O17" s="73" t="str"/>
+      <c r="P17" s="74" t="n"/>
+      <c r="Q17" s="75" t="n"/>
+    </row>
+    <row r="18" ht="20.15" customHeight="1" s="62">
+      <c r="A18" s="71" t="n"/>
+      <c r="B18" s="69" t="n"/>
+      <c r="C18" s="69" t="n"/>
+      <c r="D18" s="69" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="69" t="n"/>
+      <c r="H18" s="69" t="n"/>
+      <c r="I18" s="70" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="72" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="70" t="n"/>
+      <c r="O18" s="73" t="str"/>
+      <c r="P18" s="74" t="n"/>
+      <c r="Q18" s="75" t="n"/>
+    </row>
+    <row r="19" ht="20.15" customHeight="1" s="62">
+      <c r="A19" s="71" t="n"/>
+      <c r="B19" s="69" t="n"/>
+      <c r="C19" s="69" t="n"/>
+      <c r="D19" s="69" t="n"/>
+      <c r="E19" s="69" t="n"/>
+      <c r="F19" s="69" t="n"/>
+      <c r="G19" s="69" t="n"/>
+      <c r="H19" s="69" t="n"/>
+      <c r="I19" s="70" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="72" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="70" t="n"/>
+      <c r="O19" s="73" t="str"/>
+      <c r="P19" s="74" t="n"/>
+      <c r="Q19" s="75" t="n"/>
+    </row>
+    <row r="20" ht="20.15" customHeight="1" s="62">
+      <c r="A20" s="71" t="n"/>
+      <c r="B20" s="69" t="n"/>
+      <c r="C20" s="69" t="n"/>
+      <c r="D20" s="69" t="n"/>
+      <c r="E20" s="69" t="n"/>
+      <c r="F20" s="69" t="n"/>
+      <c r="G20" s="69" t="n"/>
+      <c r="H20" s="69" t="n"/>
+      <c r="I20" s="70" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="72" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="70" t="n"/>
+      <c r="O20" s="73" t="str"/>
+      <c r="P20" s="74" t="n"/>
+      <c r="Q20" s="75" t="n"/>
+    </row>
+    <row r="21" ht="20.15" customHeight="1" s="62">
+      <c r="A21" s="71" t="n"/>
+      <c r="B21" s="69" t="n"/>
+      <c r="C21" s="69" t="n"/>
+      <c r="D21" s="69" t="n"/>
+      <c r="E21" s="69" t="n"/>
+      <c r="F21" s="69" t="n"/>
+      <c r="G21" s="69" t="n"/>
+      <c r="H21" s="69" t="n"/>
+      <c r="I21" s="70" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="72" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="70" t="n"/>
+      <c r="O21" s="73" t="str"/>
+      <c r="P21" s="74" t="n"/>
+      <c r="Q21" s="75" t="n"/>
+    </row>
+    <row r="22" ht="20.15" customHeight="1" s="62">
+      <c r="A22" s="71" t="n"/>
+      <c r="B22" s="69" t="n"/>
+      <c r="C22" s="69" t="n"/>
+      <c r="D22" s="69" t="n"/>
+      <c r="E22" s="69" t="n"/>
+      <c r="F22" s="69" t="n"/>
+      <c r="G22" s="69" t="n"/>
+      <c r="H22" s="69" t="n"/>
+      <c r="I22" s="70" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="8" t="n"/>
+      <c r="L22" s="72" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="70" t="n"/>
+      <c r="O22" s="73" t="str"/>
+      <c r="P22" s="74" t="n"/>
+      <c r="Q22" s="75" t="n"/>
+    </row>
+    <row r="23" ht="20.15" customHeight="1" s="62">
+      <c r="A23" s="71" t="n"/>
+      <c r="B23" s="69" t="n"/>
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="70" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="8" t="n"/>
+      <c r="L23" s="72" t="n"/>
+      <c r="M23" s="69" t="n"/>
+      <c r="N23" s="70" t="n"/>
+      <c r="O23" s="73" t="str"/>
+      <c r="P23" s="74" t="n"/>
+      <c r="Q23" s="75" t="n"/>
+    </row>
+    <row r="24" ht="20.15" customHeight="1" s="62">
+      <c r="A24" s="71" t="n"/>
+      <c r="B24" s="69" t="n"/>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n"/>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
+      <c r="G24" s="69" t="n"/>
+      <c r="H24" s="69" t="n"/>
+      <c r="I24" s="70" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="72" t="n"/>
+      <c r="M24" s="69" t="n"/>
+      <c r="N24" s="70" t="n"/>
+      <c r="O24" s="73" t="str"/>
+      <c r="P24" s="74" t="n"/>
+      <c r="Q24" s="75" t="n"/>
+    </row>
+    <row r="25" ht="20.15" customHeight="1" s="62">
+      <c r="A25" s="71" t="n"/>
+      <c r="B25" s="69" t="n"/>
+      <c r="C25" s="69" t="n"/>
+      <c r="D25" s="69" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="69" t="n"/>
+      <c r="G25" s="69" t="n"/>
+      <c r="H25" s="69" t="n"/>
+      <c r="I25" s="70" t="n"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="72" t="n"/>
+      <c r="M25" s="69" t="n"/>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="73" t="str"/>
+      <c r="P25" s="74" t="n"/>
+      <c r="Q25" s="75" t="n"/>
+    </row>
+    <row r="26" ht="20.15" customHeight="1" s="62">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="36" t="n"/>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="36" t="n"/>
+      <c r="F26" s="36" t="n"/>
+      <c r="G26" s="36" t="n"/>
+      <c r="H26" s="36" t="n"/>
+      <c r="I26" s="36" t="n"/>
+      <c r="J26" s="41" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="76" t="n"/>
+      <c r="L26" s="77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="74" t="n"/>
+      <c r="N26" s="74" t="n"/>
+      <c r="O26" s="74" t="n"/>
+      <c r="P26" s="74" t="n"/>
+      <c r="Q26" s="75" t="n"/>
+    </row>
+    <row r="27" ht="20.15" customHeight="1" s="62">
+      <c r="A27" s="36" t="n"/>
+      <c r="B27" s="36" t="n"/>
+      <c r="C27" s="36" t="n"/>
+      <c r="D27" s="36" t="n"/>
+      <c r="E27" s="36" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="36" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="38" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="78" t="n"/>
+      <c r="L27" s="79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="74" t="n"/>
+      <c r="N27" s="74" t="n"/>
+      <c r="O27" s="74" t="n"/>
+      <c r="P27" s="74" t="n"/>
+      <c r="Q27" s="75" t="n"/>
+    </row>
+    <row r="28" ht="20.15" customHeight="1" s="62">
+      <c r="A28" s="36" t="n"/>
+      <c r="B28" s="36" t="n"/>
+      <c r="C28" s="63" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="E28" s="63" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="36" t="n"/>
+      <c r="H28" s="36" t="n"/>
+      <c r="I28" s="36" t="n"/>
+      <c r="J28" s="38" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="78" t="n"/>
+      <c r="L28" s="80" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="74" t="n"/>
+      <c r="N28" s="74" t="n"/>
+      <c r="O28" s="74" t="n"/>
+      <c r="P28" s="74" t="n"/>
+      <c r="Q28" s="75" t="n"/>
+    </row>
+    <row r="29" ht="20.15" customHeight="1" s="62">
+      <c r="A29" s="36" t="n"/>
+      <c r="B29" s="39" t="n"/>
+      <c r="C29" s="81" t="n"/>
+      <c r="D29" s="81" t="n"/>
+      <c r="E29" s="81" t="n"/>
+      <c r="F29" s="81" t="n"/>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="36" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="36" t="n"/>
+      <c r="N29" s="36" t="n"/>
+      <c r="O29" s="36" t="n"/>
+      <c r="P29" s="36" t="n"/>
+      <c r="Q29" s="36" t="n"/>
+    </row>
+    <row r="30" ht="20.15" customHeight="1" s="62">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="69" t="n"/>
+      <c r="C30" s="69" t="n"/>
+      <c r="D30" s="69" t="n"/>
+      <c r="E30" s="69" t="n"/>
+      <c r="F30" s="69" t="n"/>
+      <c r="G30" s="69" t="n"/>
+      <c r="H30" s="69" t="n"/>
+      <c r="I30" s="69" t="n"/>
+      <c r="J30" s="69" t="n"/>
+      <c r="K30" s="69" t="n"/>
+      <c r="L30" s="69" t="n"/>
+      <c r="M30" s="69" t="n"/>
+      <c r="N30" s="69" t="n"/>
+      <c r="O30" s="69" t="n"/>
+      <c r="P30" s="69" t="n"/>
+      <c r="Q30" s="70" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1" s="62">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n"/>
+      <c r="C31" s="83" t="n"/>
+      <c r="D31" s="83" t="n"/>
+      <c r="E31" s="83" t="n"/>
+      <c r="F31" s="83" t="n"/>
+      <c r="G31" s="83" t="n"/>
+      <c r="H31" s="83" t="n"/>
+      <c r="I31" s="83" t="n"/>
+      <c r="J31" s="83" t="n"/>
+      <c r="K31" s="83" t="n"/>
+      <c r="L31" s="83" t="n"/>
+      <c r="M31" s="83" t="n"/>
+      <c r="N31" s="83" t="n"/>
+      <c r="O31" s="83" t="n"/>
+      <c r="P31" s="83" t="n"/>
+      <c r="Q31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="20.15" customHeight="1" s="62">
+      <c r="A32" s="84" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="63" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="63" t="n"/>
+      <c r="H32" s="63" t="n"/>
+      <c r="I32" s="63" t="n"/>
+      <c r="J32" s="63" t="n"/>
+      <c r="K32" s="63" t="n"/>
+      <c r="L32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="63" t="n"/>
+      <c r="O32" s="63" t="n"/>
+      <c r="P32" s="63" t="n"/>
+      <c r="Q32" s="78" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1" s="62">
+      <c r="A33" s="84" t="n"/>
+      <c r="B33" s="63" t="n"/>
+      <c r="C33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="E33" s="63" t="n"/>
+      <c r="F33" s="63" t="n"/>
+      <c r="G33" s="63" t="n"/>
+      <c r="H33" s="63" t="n"/>
+      <c r="I33" s="63" t="n"/>
+      <c r="J33" s="63" t="n"/>
+      <c r="K33" s="63" t="n"/>
+      <c r="L33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="63" t="n"/>
+      <c r="O33" s="63" t="n"/>
+      <c r="P33" s="63" t="n"/>
+      <c r="Q33" s="78" t="n"/>
+    </row>
+    <row r="34" ht="20.15" customHeight="1" s="62">
+      <c r="A34" s="85" t="n"/>
+      <c r="B34" s="81" t="n"/>
+      <c r="C34" s="81" t="n"/>
+      <c r="D34" s="81" t="n"/>
+      <c r="E34" s="81" t="n"/>
+      <c r="F34" s="81" t="n"/>
+      <c r="G34" s="81" t="n"/>
+      <c r="H34" s="81" t="n"/>
+      <c r="I34" s="81" t="n"/>
+      <c r="J34" s="81" t="n"/>
+      <c r="K34" s="81" t="n"/>
+      <c r="L34" s="81" t="n"/>
+      <c r="M34" s="81" t="n"/>
+      <c r="N34" s="81" t="n"/>
+      <c r="O34" s="81" t="n"/>
+      <c r="P34" s="81" t="n"/>
+      <c r="Q34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A35" s="6" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A37" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="95"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="5.58203125" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col width="5.58203125" customWidth="1" style="43" min="1" max="8"/>
+    <col width="5.83203125" bestFit="1" customWidth="1" style="43" min="9" max="9"/>
+    <col width="5.58203125" customWidth="1" style="43" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="62">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
+      <c r="E1" s="63" t="n"/>
+      <c r="F1" s="63" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="63" t="n"/>
+      <c r="I1" s="63" t="n"/>
+      <c r="J1" s="63" t="n"/>
+      <c r="K1" s="63" t="n"/>
+      <c r="L1" s="63" t="n"/>
+      <c r="M1" s="63" t="n"/>
+      <c r="N1" s="63" t="n"/>
+      <c r="O1" s="63" t="n"/>
+      <c r="P1" s="63" t="n"/>
+      <c r="Q1" s="63" t="n"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="62">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>株式会社A</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="M2" s="63" t="n"/>
+      <c r="N2" s="15" t="inlineStr">
+        <is>
+          <t>202407-001</t>
+        </is>
+      </c>
+      <c r="O2" s="63" t="n"/>
+      <c r="P2" s="63" t="n"/>
+      <c r="Q2" s="63" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="62">
+      <c r="A3" s="64" t="n"/>
+      <c r="B3" s="64" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="I3" s="63" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="M3" s="63" t="n"/>
+      <c r="N3" s="65" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+      <c r="O3" s="63" t="n"/>
+      <c r="P3" s="63" t="n"/>
+      <c r="Q3" s="63" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" s="62">
+      <c r="A4" s="44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">一関 </t>
+        </is>
+      </c>
+      <c r="B4" s="66" t="n"/>
+      <c r="C4" s="66" t="n"/>
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n"/>
+      <c r="F4" s="66" t="n"/>
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="J4" s="36" t="n"/>
+      <c r="K4" s="36" t="n"/>
+      <c r="L4" s="36" t="n"/>
+      <c r="M4" s="36" t="n"/>
+      <c r="N4" s="36" t="n"/>
+      <c r="O4" s="36" t="n"/>
+      <c r="P4" s="36" t="n"/>
+      <c r="Q4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="20.15" customHeight="1" s="62">
+      <c r="A5" s="2" t="n"/>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="63" t="n"/>
+      <c r="N5" s="61" t="n"/>
+      <c r="O5" s="61" t="n"/>
+      <c r="P5" s="61" t="n"/>
+      <c r="Q5" s="61" t="n"/>
+    </row>
+    <row r="6" ht="20.15" customHeight="1" s="62">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="B6" s="63" t="n"/>
+      <c r="C6" s="63" t="n"/>
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="63" t="n"/>
+      <c r="H6" s="63" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+      <c r="L6" s="63" t="n"/>
+      <c r="M6" s="63" t="n"/>
+      <c r="N6" s="63" t="n"/>
+      <c r="O6" s="63" t="n"/>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="63" t="n"/>
+    </row>
+    <row r="7" ht="20.15" customHeight="1" s="62">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="45" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="64" t="n"/>
+      <c r="E7" s="64" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="43" t="n"/>
+      <c r="I7" s="43" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+      <c r="L7" s="63" t="n"/>
+      <c r="M7" s="63" t="n"/>
+      <c r="N7" s="63" t="n"/>
+      <c r="O7" s="63" t="n"/>
+      <c r="P7" s="63" t="n"/>
+      <c r="Q7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="20.15" customHeight="1" s="62">
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="n"/>
+      <c r="M8" s="15" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+      <c r="N8" s="63" t="n"/>
+      <c r="O8" s="63" t="n"/>
+      <c r="P8" s="63" t="n"/>
+      <c r="Q8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="20.15" customHeight="1" s="62">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="14" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="L9" s="63" t="n"/>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+      <c r="N9" s="63" t="n"/>
+      <c r="O9" s="63" t="n"/>
+      <c r="P9" s="63" t="n"/>
+      <c r="Q9" s="63" t="n"/>
+    </row>
+    <row r="10" ht="20.15" customHeight="1" s="62" thickBot="1">
+      <c r="A10" s="68" t="n"/>
+      <c r="B10" s="68" t="n"/>
+      <c r="C10" s="68" t="n"/>
+      <c r="D10" s="68" t="n"/>
+      <c r="E10" s="68" t="n"/>
+      <c r="F10" s="68" t="n"/>
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="68" t="n"/>
+      <c r="I10" s="68" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="L10" s="63" t="n"/>
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+      <c r="N10" s="63" t="n"/>
+      <c r="O10" s="63" t="n"/>
+      <c r="P10" s="63" t="n"/>
+      <c r="Q10" s="63" t="n"/>
+    </row>
+    <row r="11" ht="20.15" customHeight="1" s="62" thickTop="1">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="L11" s="63" t="n"/>
+      <c r="M11" s="15" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+      <c r="N11" s="63" t="n"/>
+      <c r="O11" s="63" t="n"/>
+      <c r="P11" s="63" t="n"/>
+      <c r="Q11" s="63" t="n"/>
+    </row>
+    <row r="12" ht="10" customHeight="1" s="62">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" s="62">
+      <c r="A13" s="20" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="69" t="n"/>
+      <c r="C13" s="69" t="n"/>
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="69" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="69" t="n"/>
+      <c r="H13" s="69" t="n"/>
+      <c r="I13" s="70" t="n"/>
+      <c r="J13" s="20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="70" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="69" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="69" t="n"/>
+      <c r="Q13" s="70" t="n"/>
+    </row>
+    <row r="14" ht="20.15" customHeight="1" s="62">
+      <c r="A14" s="71" t="inlineStr">
+        <is>
+          <t>コンサルティング料金</t>
+        </is>
+      </c>
+      <c r="B14" s="69" t="n"/>
+      <c r="C14" s="69" t="n"/>
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="69" t="n"/>
+      <c r="F14" s="69" t="n"/>
+      <c r="G14" s="69" t="n"/>
+      <c r="H14" s="69" t="n"/>
+      <c r="I14" s="70" t="n"/>
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="46" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L14" s="72" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="69" t="n"/>
+      <c r="N14" s="70" t="n"/>
+      <c r="O14" s="73" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P14" s="74" t="n"/>
+      <c r="Q14" s="75" t="n"/>
+    </row>
+    <row r="15" ht="20.15" customHeight="1" s="62">
+      <c r="A15" s="71" t="inlineStr">
+        <is>
+          <t>Webサイト制作料</t>
+        </is>
+      </c>
+      <c r="B15" s="69" t="n"/>
+      <c r="C15" s="69" t="n"/>
+      <c r="D15" s="69" t="n"/>
+      <c r="E15" s="69" t="n"/>
+      <c r="F15" s="69" t="n"/>
+      <c r="G15" s="69" t="n"/>
+      <c r="H15" s="69" t="n"/>
+      <c r="I15" s="70" t="n"/>
+      <c r="J15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L15" s="72" t="n">
+        <v>300000</v>
+      </c>
+      <c r="M15" s="69" t="n"/>
+      <c r="N15" s="70" t="n"/>
+      <c r="O15" s="73" t="n">
+        <v>600000</v>
+      </c>
+      <c r="P15" s="74" t="n"/>
+      <c r="Q15" s="75" t="n"/>
+    </row>
+    <row r="16" ht="20.15" customHeight="1" s="62">
+      <c r="A16" s="71" t="inlineStr">
+        <is>
+          <t>メンテナンス料</t>
+        </is>
+      </c>
+      <c r="B16" s="69" t="n"/>
+      <c r="C16" s="69" t="n"/>
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="69" t="n"/>
+      <c r="F16" s="69" t="n"/>
+      <c r="G16" s="69" t="n"/>
+      <c r="H16" s="69" t="n"/>
+      <c r="I16" s="70" t="n"/>
+      <c r="J16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="L16" s="72" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="69" t="n"/>
+      <c r="N16" s="70" t="n"/>
+      <c r="O16" s="73" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P16" s="74" t="n"/>
+      <c r="Q16" s="75" t="n"/>
+    </row>
+    <row r="17" ht="20.15" customHeight="1" s="62">
+      <c r="A17" s="71" t="inlineStr">
+        <is>
+          <t>研修費用</t>
+        </is>
+      </c>
+      <c r="B17" s="69" t="n"/>
+      <c r="C17" s="69" t="n"/>
+      <c r="D17" s="69" t="n"/>
+      <c r="E17" s="69" t="n"/>
+      <c r="F17" s="69" t="n"/>
+      <c r="G17" s="69" t="n"/>
+      <c r="H17" s="69" t="n"/>
+      <c r="I17" s="70" t="n"/>
+      <c r="J17" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L17" s="72" t="n">
+        <v>200000</v>
+      </c>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="70" t="n"/>
+      <c r="O17" s="73" t="n">
+        <v>600000</v>
+      </c>
+      <c r="P17" s="74" t="n"/>
+      <c r="Q17" s="75" t="n"/>
+    </row>
+    <row r="18" ht="20.15" customHeight="1" s="62">
+      <c r="A18" s="71" t="inlineStr">
+        <is>
+          <t>広告掲載費</t>
+        </is>
+      </c>
+      <c r="B18" s="69" t="n"/>
+      <c r="C18" s="69" t="n"/>
+      <c r="D18" s="69" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="69" t="n"/>
+      <c r="H18" s="69" t="n"/>
+      <c r="I18" s="70" t="n"/>
+      <c r="J18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="L18" s="72" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="70" t="n"/>
+      <c r="O18" s="73" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P18" s="74" t="n"/>
+      <c r="Q18" s="75" t="n"/>
+    </row>
+    <row r="19" ht="20.15" customHeight="1" s="62">
+      <c r="A19" s="71" t="inlineStr">
+        <is>
+          <t>商品販売代金</t>
+        </is>
+      </c>
+      <c r="B19" s="69" t="n"/>
+      <c r="C19" s="69" t="n"/>
+      <c r="D19" s="69" t="n"/>
+      <c r="E19" s="69" t="n"/>
+      <c r="F19" s="69" t="n"/>
+      <c r="G19" s="69" t="n"/>
+      <c r="H19" s="69" t="n"/>
+      <c r="I19" s="70" t="n"/>
+      <c r="J19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L19" s="72" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="70" t="n"/>
+      <c r="O19" s="73" t="n">
+        <v>50000</v>
+      </c>
+      <c r="P19" s="74" t="n"/>
+      <c r="Q19" s="75" t="n"/>
+    </row>
+    <row r="20" ht="20.15" customHeight="1" s="62">
+      <c r="A20" s="71" t="inlineStr">
+        <is>
+          <t>保守契約料</t>
+        </is>
+      </c>
+      <c r="B20" s="69" t="n"/>
+      <c r="C20" s="69" t="n"/>
+      <c r="D20" s="69" t="n"/>
+      <c r="E20" s="69" t="n"/>
+      <c r="F20" s="69" t="n"/>
+      <c r="G20" s="69" t="n"/>
+      <c r="H20" s="69" t="n"/>
+      <c r="I20" s="70" t="n"/>
+      <c r="J20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="L20" s="72" t="n">
+        <v>200000</v>
+      </c>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="70" t="n"/>
+      <c r="O20" s="73" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P20" s="74" t="n"/>
+      <c r="Q20" s="75" t="n"/>
+    </row>
+    <row r="21" ht="20.15" customHeight="1" s="62">
+      <c r="A21" s="71" t="inlineStr">
+        <is>
+          <t>サポート料金</t>
+        </is>
+      </c>
+      <c r="B21" s="69" t="n"/>
+      <c r="C21" s="69" t="n"/>
+      <c r="D21" s="69" t="n"/>
+      <c r="E21" s="69" t="n"/>
+      <c r="F21" s="69" t="n"/>
+      <c r="G21" s="69" t="n"/>
+      <c r="H21" s="69" t="n"/>
+      <c r="I21" s="70" t="n"/>
+      <c r="J21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="L21" s="72" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="70" t="n"/>
+      <c r="O21" s="73" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P21" s="74" t="n"/>
+      <c r="Q21" s="75" t="n"/>
+    </row>
+    <row r="22" ht="20.15" customHeight="1" s="62">
+      <c r="A22" s="71" t="inlineStr">
+        <is>
+          <t>ライセンス料</t>
+        </is>
+      </c>
+      <c r="B22" s="69" t="n"/>
+      <c r="C22" s="69" t="n"/>
+      <c r="D22" s="69" t="n"/>
+      <c r="E22" s="69" t="n"/>
+      <c r="F22" s="69" t="n"/>
+      <c r="G22" s="69" t="n"/>
+      <c r="H22" s="69" t="n"/>
+      <c r="I22" s="70" t="n"/>
+      <c r="J22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L22" s="72" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="70" t="n"/>
+      <c r="O22" s="73" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P22" s="74" t="n"/>
+      <c r="Q22" s="75" t="n"/>
+    </row>
+    <row r="23" ht="20.15" customHeight="1" s="62">
+      <c r="A23" s="71" t="inlineStr">
+        <is>
+          <t>レンタル料</t>
+        </is>
+      </c>
+      <c r="B23" s="69" t="n"/>
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="70" t="n"/>
+      <c r="J23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L23" s="72" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M23" s="69" t="n"/>
+      <c r="N23" s="70" t="n"/>
+      <c r="O23" s="73" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P23" s="74" t="n"/>
+      <c r="Q23" s="75" t="n"/>
+    </row>
+    <row r="24" ht="20.15" customHeight="1" s="62">
+      <c r="A24" s="71" t="n"/>
+      <c r="B24" s="69" t="n"/>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n"/>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
+      <c r="G24" s="69" t="n"/>
+      <c r="H24" s="69" t="n"/>
+      <c r="I24" s="70" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="72" t="n"/>
+      <c r="M24" s="69" t="n"/>
+      <c r="N24" s="70" t="n"/>
+      <c r="O24" s="73" t="str"/>
+      <c r="P24" s="74" t="n"/>
+      <c r="Q24" s="75" t="n"/>
+    </row>
+    <row r="25" ht="20.15" customHeight="1" s="62">
+      <c r="A25" s="71" t="n"/>
+      <c r="B25" s="69" t="n"/>
+      <c r="C25" s="69" t="n"/>
+      <c r="D25" s="69" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="69" t="n"/>
+      <c r="G25" s="69" t="n"/>
+      <c r="H25" s="69" t="n"/>
+      <c r="I25" s="70" t="n"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="72" t="n"/>
+      <c r="M25" s="69" t="n"/>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="73" t="str"/>
+      <c r="P25" s="74" t="n"/>
+      <c r="Q25" s="75" t="n"/>
+    </row>
+    <row r="26" ht="20.15" customHeight="1" s="62">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="36" t="n"/>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="36" t="n"/>
+      <c r="F26" s="36" t="n"/>
+      <c r="G26" s="36" t="n"/>
+      <c r="H26" s="36" t="n"/>
+      <c r="I26" s="36" t="n"/>
+      <c r="J26" s="41" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="76" t="n"/>
+      <c r="L26" s="77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="74" t="n"/>
+      <c r="N26" s="74" t="n"/>
+      <c r="O26" s="74" t="n"/>
+      <c r="P26" s="74" t="n"/>
+      <c r="Q26" s="75" t="n"/>
+    </row>
+    <row r="27" ht="20.15" customHeight="1" s="62">
+      <c r="A27" s="36" t="n"/>
+      <c r="B27" s="36" t="n"/>
+      <c r="C27" s="36" t="n"/>
+      <c r="D27" s="36" t="n"/>
+      <c r="E27" s="36" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="36" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="38" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="78" t="n"/>
+      <c r="L27" s="79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="74" t="n"/>
+      <c r="N27" s="74" t="n"/>
+      <c r="O27" s="74" t="n"/>
+      <c r="P27" s="74" t="n"/>
+      <c r="Q27" s="75" t="n"/>
+    </row>
+    <row r="28" ht="20.15" customHeight="1" s="62">
+      <c r="A28" s="36" t="n"/>
+      <c r="B28" s="36" t="n"/>
+      <c r="C28" s="63" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="E28" s="63" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="36" t="n"/>
+      <c r="H28" s="36" t="n"/>
+      <c r="I28" s="36" t="n"/>
+      <c r="J28" s="38" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="78" t="n"/>
+      <c r="L28" s="80" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="74" t="n"/>
+      <c r="N28" s="74" t="n"/>
+      <c r="O28" s="74" t="n"/>
+      <c r="P28" s="74" t="n"/>
+      <c r="Q28" s="75" t="n"/>
+    </row>
+    <row r="29" ht="20.15" customHeight="1" s="62">
+      <c r="A29" s="36" t="n"/>
+      <c r="B29" s="39" t="n"/>
+      <c r="C29" s="81" t="n"/>
+      <c r="D29" s="81" t="n"/>
+      <c r="E29" s="81" t="n"/>
+      <c r="F29" s="81" t="n"/>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="36" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="36" t="n"/>
+      <c r="N29" s="36" t="n"/>
+      <c r="O29" s="36" t="n"/>
+      <c r="P29" s="36" t="n"/>
+      <c r="Q29" s="36" t="n"/>
+    </row>
+    <row r="30" ht="20.15" customHeight="1" s="62">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="69" t="n"/>
+      <c r="C30" s="69" t="n"/>
+      <c r="D30" s="69" t="n"/>
+      <c r="E30" s="69" t="n"/>
+      <c r="F30" s="69" t="n"/>
+      <c r="G30" s="69" t="n"/>
+      <c r="H30" s="69" t="n"/>
+      <c r="I30" s="69" t="n"/>
+      <c r="J30" s="69" t="n"/>
+      <c r="K30" s="69" t="n"/>
+      <c r="L30" s="69" t="n"/>
+      <c r="M30" s="69" t="n"/>
+      <c r="N30" s="69" t="n"/>
+      <c r="O30" s="69" t="n"/>
+      <c r="P30" s="69" t="n"/>
+      <c r="Q30" s="70" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1" s="62">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n"/>
+      <c r="C31" s="83" t="n"/>
+      <c r="D31" s="83" t="n"/>
+      <c r="E31" s="83" t="n"/>
+      <c r="F31" s="83" t="n"/>
+      <c r="G31" s="83" t="n"/>
+      <c r="H31" s="83" t="n"/>
+      <c r="I31" s="83" t="n"/>
+      <c r="J31" s="83" t="n"/>
+      <c r="K31" s="83" t="n"/>
+      <c r="L31" s="83" t="n"/>
+      <c r="M31" s="83" t="n"/>
+      <c r="N31" s="83" t="n"/>
+      <c r="O31" s="83" t="n"/>
+      <c r="P31" s="83" t="n"/>
+      <c r="Q31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="20.15" customHeight="1" s="62">
+      <c r="A32" s="84" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="63" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="63" t="n"/>
+      <c r="H32" s="63" t="n"/>
+      <c r="I32" s="63" t="n"/>
+      <c r="J32" s="63" t="n"/>
+      <c r="K32" s="63" t="n"/>
+      <c r="L32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="63" t="n"/>
+      <c r="O32" s="63" t="n"/>
+      <c r="P32" s="63" t="n"/>
+      <c r="Q32" s="78" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1" s="62">
+      <c r="A33" s="84" t="n"/>
+      <c r="B33" s="63" t="n"/>
+      <c r="C33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="E33" s="63" t="n"/>
+      <c r="F33" s="63" t="n"/>
+      <c r="G33" s="63" t="n"/>
+      <c r="H33" s="63" t="n"/>
+      <c r="I33" s="63" t="n"/>
+      <c r="J33" s="63" t="n"/>
+      <c r="K33" s="63" t="n"/>
+      <c r="L33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="63" t="n"/>
+      <c r="O33" s="63" t="n"/>
+      <c r="P33" s="63" t="n"/>
+      <c r="Q33" s="78" t="n"/>
+    </row>
+    <row r="34" ht="20.15" customHeight="1" s="62">
+      <c r="A34" s="85" t="n"/>
+      <c r="B34" s="81" t="n"/>
+      <c r="C34" s="81" t="n"/>
+      <c r="D34" s="81" t="n"/>
+      <c r="E34" s="81" t="n"/>
+      <c r="F34" s="81" t="n"/>
+      <c r="G34" s="81" t="n"/>
+      <c r="H34" s="81" t="n"/>
+      <c r="I34" s="81" t="n"/>
+      <c r="J34" s="81" t="n"/>
+      <c r="K34" s="81" t="n"/>
+      <c r="L34" s="81" t="n"/>
+      <c r="M34" s="81" t="n"/>
+      <c r="N34" s="81" t="n"/>
+      <c r="O34" s="81" t="n"/>
+      <c r="P34" s="81" t="n"/>
+      <c r="Q34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A35" s="6" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A37" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="95"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="5.58203125" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col width="5.58203125" customWidth="1" style="43" min="1" max="8"/>
+    <col width="5.83203125" bestFit="1" customWidth="1" style="43" min="9" max="9"/>
+    <col width="5.58203125" customWidth="1" style="43" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="62">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
+      <c r="E1" s="63" t="n"/>
+      <c r="F1" s="63" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="63" t="n"/>
+      <c r="I1" s="63" t="n"/>
+      <c r="J1" s="63" t="n"/>
+      <c r="K1" s="63" t="n"/>
+      <c r="L1" s="63" t="n"/>
+      <c r="M1" s="63" t="n"/>
+      <c r="N1" s="63" t="n"/>
+      <c r="O1" s="63" t="n"/>
+      <c r="P1" s="63" t="n"/>
+      <c r="Q1" s="63" t="n"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="62">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>株式会社B</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="M2" s="63" t="n"/>
+      <c r="N2" s="15" t="inlineStr">
+        <is>
+          <t>202407-002</t>
+        </is>
+      </c>
+      <c r="O2" s="63" t="n"/>
+      <c r="P2" s="63" t="n"/>
+      <c r="Q2" s="63" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="62">
+      <c r="A3" s="64" t="n"/>
+      <c r="B3" s="64" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="I3" s="63" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="M3" s="63" t="n"/>
+      <c r="N3" s="65" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+      <c r="O3" s="63" t="n"/>
+      <c r="P3" s="63" t="n"/>
+      <c r="Q3" s="63" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" s="62">
+      <c r="A4" s="44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ご担当者 </t>
+        </is>
+      </c>
+      <c r="B4" s="66" t="n"/>
+      <c r="C4" s="66" t="n"/>
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n"/>
+      <c r="F4" s="66" t="n"/>
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="J4" s="36" t="n"/>
+      <c r="K4" s="36" t="n"/>
+      <c r="L4" s="36" t="n"/>
+      <c r="M4" s="36" t="n"/>
+      <c r="N4" s="36" t="n"/>
+      <c r="O4" s="36" t="n"/>
+      <c r="P4" s="36" t="n"/>
+      <c r="Q4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="20.15" customHeight="1" s="62">
+      <c r="A5" s="2" t="n"/>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="63" t="n"/>
+      <c r="N5" s="61" t="n"/>
+      <c r="O5" s="61" t="n"/>
+      <c r="P5" s="61" t="n"/>
+      <c r="Q5" s="61" t="n"/>
+    </row>
+    <row r="6" ht="20.15" customHeight="1" s="62">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="B6" s="63" t="n"/>
+      <c r="C6" s="63" t="n"/>
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="63" t="n"/>
+      <c r="H6" s="63" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+      <c r="L6" s="63" t="n"/>
+      <c r="M6" s="63" t="n"/>
+      <c r="N6" s="63" t="n"/>
+      <c r="O6" s="63" t="n"/>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="63" t="n"/>
+    </row>
+    <row r="7" ht="20.15" customHeight="1" s="62">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="45" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="64" t="n"/>
+      <c r="E7" s="64" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="43" t="n"/>
+      <c r="I7" s="43" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+      <c r="L7" s="63" t="n"/>
+      <c r="M7" s="63" t="n"/>
+      <c r="N7" s="63" t="n"/>
+      <c r="O7" s="63" t="n"/>
+      <c r="P7" s="63" t="n"/>
+      <c r="Q7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="20.15" customHeight="1" s="62">
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="n"/>
+      <c r="M8" s="15" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+      <c r="N8" s="63" t="n"/>
+      <c r="O8" s="63" t="n"/>
+      <c r="P8" s="63" t="n"/>
+      <c r="Q8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="20.15" customHeight="1" s="62">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="14" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="L9" s="63" t="n"/>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+      <c r="N9" s="63" t="n"/>
+      <c r="O9" s="63" t="n"/>
+      <c r="P9" s="63" t="n"/>
+      <c r="Q9" s="63" t="n"/>
+    </row>
+    <row r="10" ht="20.15" customHeight="1" s="62" thickBot="1">
+      <c r="A10" s="68" t="n"/>
+      <c r="B10" s="68" t="n"/>
+      <c r="C10" s="68" t="n"/>
+      <c r="D10" s="68" t="n"/>
+      <c r="E10" s="68" t="n"/>
+      <c r="F10" s="68" t="n"/>
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="68" t="n"/>
+      <c r="I10" s="68" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="L10" s="63" t="n"/>
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+      <c r="N10" s="63" t="n"/>
+      <c r="O10" s="63" t="n"/>
+      <c r="P10" s="63" t="n"/>
+      <c r="Q10" s="63" t="n"/>
+    </row>
+    <row r="11" ht="20.15" customHeight="1" s="62" thickTop="1">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="L11" s="63" t="n"/>
+      <c r="M11" s="15" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+      <c r="N11" s="63" t="n"/>
+      <c r="O11" s="63" t="n"/>
+      <c r="P11" s="63" t="n"/>
+      <c r="Q11" s="63" t="n"/>
+    </row>
+    <row r="12" ht="10" customHeight="1" s="62">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" s="62">
+      <c r="A13" s="20" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="69" t="n"/>
+      <c r="C13" s="69" t="n"/>
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="69" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="69" t="n"/>
+      <c r="H13" s="69" t="n"/>
+      <c r="I13" s="70" t="n"/>
+      <c r="J13" s="20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="70" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="69" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="69" t="n"/>
+      <c r="Q13" s="70" t="n"/>
+    </row>
+    <row r="14" ht="20.15" customHeight="1" s="62">
+      <c r="A14" s="71" t="inlineStr">
+        <is>
+          <t>Webサイト制作料</t>
+        </is>
+      </c>
+      <c r="B14" s="69" t="n"/>
+      <c r="C14" s="69" t="n"/>
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="69" t="n"/>
+      <c r="F14" s="69" t="n"/>
+      <c r="G14" s="69" t="n"/>
+      <c r="H14" s="69" t="n"/>
+      <c r="I14" s="70" t="n"/>
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="46" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L14" s="72" t="n">
+        <v>300000</v>
+      </c>
+      <c r="M14" s="69" t="n"/>
+      <c r="N14" s="70" t="n"/>
+      <c r="O14" s="73" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P14" s="74" t="n"/>
+      <c r="Q14" s="75" t="n"/>
+    </row>
+    <row r="15" ht="20.15" customHeight="1" s="62">
+      <c r="A15" s="71" t="inlineStr">
+        <is>
+          <t>コンサルティング料金</t>
+        </is>
+      </c>
+      <c r="B15" s="69" t="n"/>
+      <c r="C15" s="69" t="n"/>
+      <c r="D15" s="69" t="n"/>
+      <c r="E15" s="69" t="n"/>
+      <c r="F15" s="69" t="n"/>
+      <c r="G15" s="69" t="n"/>
+      <c r="H15" s="69" t="n"/>
+      <c r="I15" s="70" t="n"/>
+      <c r="J15" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L15" s="72" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M15" s="69" t="n"/>
+      <c r="N15" s="70" t="n"/>
+      <c r="O15" s="73" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P15" s="74" t="n"/>
+      <c r="Q15" s="75" t="n"/>
+    </row>
+    <row r="16" ht="20.15" customHeight="1" s="62">
+      <c r="A16" s="71" t="n"/>
+      <c r="B16" s="69" t="n"/>
+      <c r="C16" s="69" t="n"/>
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="69" t="n"/>
+      <c r="F16" s="69" t="n"/>
+      <c r="G16" s="69" t="n"/>
+      <c r="H16" s="69" t="n"/>
+      <c r="I16" s="70" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="72" t="n"/>
+      <c r="M16" s="69" t="n"/>
+      <c r="N16" s="70" t="n"/>
+      <c r="O16" s="73" t="n"/>
+      <c r="P16" s="74" t="n"/>
+      <c r="Q16" s="75" t="n"/>
+    </row>
+    <row r="17" ht="20.15" customHeight="1" s="62">
+      <c r="A17" s="71" t="n"/>
+      <c r="B17" s="69" t="n"/>
+      <c r="C17" s="69" t="n"/>
+      <c r="D17" s="69" t="n"/>
+      <c r="E17" s="69" t="n"/>
+      <c r="F17" s="69" t="n"/>
+      <c r="G17" s="69" t="n"/>
+      <c r="H17" s="69" t="n"/>
+      <c r="I17" s="70" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="72" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="70" t="n"/>
+      <c r="O17" s="73" t="n"/>
+      <c r="P17" s="74" t="n"/>
+      <c r="Q17" s="75" t="n"/>
+    </row>
+    <row r="18" ht="20.15" customHeight="1" s="62">
+      <c r="A18" s="71" t="n"/>
+      <c r="B18" s="69" t="n"/>
+      <c r="C18" s="69" t="n"/>
+      <c r="D18" s="69" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="69" t="n"/>
+      <c r="H18" s="69" t="n"/>
+      <c r="I18" s="70" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="72" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="70" t="n"/>
+      <c r="O18" s="73" t="n"/>
+      <c r="P18" s="74" t="n"/>
+      <c r="Q18" s="75" t="n"/>
+    </row>
+    <row r="19" ht="20.15" customHeight="1" s="62">
+      <c r="A19" s="71" t="n"/>
+      <c r="B19" s="69" t="n"/>
+      <c r="C19" s="69" t="n"/>
+      <c r="D19" s="69" t="n"/>
+      <c r="E19" s="69" t="n"/>
+      <c r="F19" s="69" t="n"/>
+      <c r="G19" s="69" t="n"/>
+      <c r="H19" s="69" t="n"/>
+      <c r="I19" s="70" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="72" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="70" t="n"/>
+      <c r="O19" s="73" t="n"/>
+      <c r="P19" s="74" t="n"/>
+      <c r="Q19" s="75" t="n"/>
+    </row>
+    <row r="20" ht="20.15" customHeight="1" s="62">
+      <c r="A20" s="71" t="n"/>
+      <c r="B20" s="69" t="n"/>
+      <c r="C20" s="69" t="n"/>
+      <c r="D20" s="69" t="n"/>
+      <c r="E20" s="69" t="n"/>
+      <c r="F20" s="69" t="n"/>
+      <c r="G20" s="69" t="n"/>
+      <c r="H20" s="69" t="n"/>
+      <c r="I20" s="70" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="72" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="70" t="n"/>
+      <c r="O20" s="73" t="n"/>
+      <c r="P20" s="74" t="n"/>
+      <c r="Q20" s="75" t="n"/>
+    </row>
+    <row r="21" ht="20.15" customHeight="1" s="62">
+      <c r="A21" s="71" t="n"/>
+      <c r="B21" s="69" t="n"/>
+      <c r="C21" s="69" t="n"/>
+      <c r="D21" s="69" t="n"/>
+      <c r="E21" s="69" t="n"/>
+      <c r="F21" s="69" t="n"/>
+      <c r="G21" s="69" t="n"/>
+      <c r="H21" s="69" t="n"/>
+      <c r="I21" s="70" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="72" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="70" t="n"/>
+      <c r="O21" s="73" t="n"/>
+      <c r="P21" s="74" t="n"/>
+      <c r="Q21" s="75" t="n"/>
+    </row>
+    <row r="22" ht="20.15" customHeight="1" s="62">
+      <c r="A22" s="71" t="n"/>
+      <c r="B22" s="69" t="n"/>
+      <c r="C22" s="69" t="n"/>
+      <c r="D22" s="69" t="n"/>
+      <c r="E22" s="69" t="n"/>
+      <c r="F22" s="69" t="n"/>
+      <c r="G22" s="69" t="n"/>
+      <c r="H22" s="69" t="n"/>
+      <c r="I22" s="70" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="8" t="n"/>
+      <c r="L22" s="72" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="70" t="n"/>
+      <c r="O22" s="73" t="n"/>
+      <c r="P22" s="74" t="n"/>
+      <c r="Q22" s="75" t="n"/>
+    </row>
+    <row r="23" ht="20.15" customHeight="1" s="62">
+      <c r="A23" s="71" t="n"/>
+      <c r="B23" s="69" t="n"/>
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="70" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="8" t="n"/>
+      <c r="L23" s="72" t="n"/>
+      <c r="M23" s="69" t="n"/>
+      <c r="N23" s="70" t="n"/>
+      <c r="O23" s="73" t="n"/>
+      <c r="P23" s="74" t="n"/>
+      <c r="Q23" s="75" t="n"/>
+    </row>
+    <row r="24" ht="20.15" customHeight="1" s="62">
+      <c r="A24" s="71" t="n"/>
+      <c r="B24" s="69" t="n"/>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n"/>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
+      <c r="G24" s="69" t="n"/>
+      <c r="H24" s="69" t="n"/>
+      <c r="I24" s="70" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="72" t="n"/>
+      <c r="M24" s="69" t="n"/>
+      <c r="N24" s="70" t="n"/>
+      <c r="O24" s="73" t="str"/>
+      <c r="P24" s="74" t="n"/>
+      <c r="Q24" s="75" t="n"/>
+    </row>
+    <row r="25" ht="20.15" customHeight="1" s="62">
+      <c r="A25" s="71" t="n"/>
+      <c r="B25" s="69" t="n"/>
+      <c r="C25" s="69" t="n"/>
+      <c r="D25" s="69" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="69" t="n"/>
+      <c r="G25" s="69" t="n"/>
+      <c r="H25" s="69" t="n"/>
+      <c r="I25" s="70" t="n"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="72" t="n"/>
+      <c r="M25" s="69" t="n"/>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="73" t="str"/>
+      <c r="P25" s="74" t="n"/>
+      <c r="Q25" s="75" t="n"/>
+    </row>
+    <row r="26" ht="20.15" customHeight="1" s="62">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="36" t="n"/>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="36" t="n"/>
+      <c r="F26" s="36" t="n"/>
+      <c r="G26" s="36" t="n"/>
+      <c r="H26" s="36" t="n"/>
+      <c r="I26" s="36" t="n"/>
+      <c r="J26" s="41" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="76" t="n"/>
+      <c r="L26" s="77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="74" t="n"/>
+      <c r="N26" s="74" t="n"/>
+      <c r="O26" s="74" t="n"/>
+      <c r="P26" s="74" t="n"/>
+      <c r="Q26" s="75" t="n"/>
+    </row>
+    <row r="27" ht="20.15" customHeight="1" s="62">
+      <c r="A27" s="36" t="n"/>
+      <c r="B27" s="36" t="n"/>
+      <c r="C27" s="36" t="n"/>
+      <c r="D27" s="36" t="n"/>
+      <c r="E27" s="36" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="36" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="38" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="78" t="n"/>
+      <c r="L27" s="79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="74" t="n"/>
+      <c r="N27" s="74" t="n"/>
+      <c r="O27" s="74" t="n"/>
+      <c r="P27" s="74" t="n"/>
+      <c r="Q27" s="75" t="n"/>
+    </row>
+    <row r="28" ht="20.15" customHeight="1" s="62">
+      <c r="A28" s="36" t="n"/>
+      <c r="B28" s="36" t="n"/>
+      <c r="C28" s="63" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="E28" s="63" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="36" t="n"/>
+      <c r="H28" s="36" t="n"/>
+      <c r="I28" s="36" t="n"/>
+      <c r="J28" s="38" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="78" t="n"/>
+      <c r="L28" s="80" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="74" t="n"/>
+      <c r="N28" s="74" t="n"/>
+      <c r="O28" s="74" t="n"/>
+      <c r="P28" s="74" t="n"/>
+      <c r="Q28" s="75" t="n"/>
+    </row>
+    <row r="29" ht="20.15" customHeight="1" s="62">
+      <c r="A29" s="36" t="n"/>
+      <c r="B29" s="39" t="n"/>
+      <c r="C29" s="81" t="n"/>
+      <c r="D29" s="81" t="n"/>
+      <c r="E29" s="81" t="n"/>
+      <c r="F29" s="81" t="n"/>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="36" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="36" t="n"/>
+      <c r="N29" s="36" t="n"/>
+      <c r="O29" s="36" t="n"/>
+      <c r="P29" s="36" t="n"/>
+      <c r="Q29" s="36" t="n"/>
+    </row>
+    <row r="30" ht="20.15" customHeight="1" s="62">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="69" t="n"/>
+      <c r="C30" s="69" t="n"/>
+      <c r="D30" s="69" t="n"/>
+      <c r="E30" s="69" t="n"/>
+      <c r="F30" s="69" t="n"/>
+      <c r="G30" s="69" t="n"/>
+      <c r="H30" s="69" t="n"/>
+      <c r="I30" s="69" t="n"/>
+      <c r="J30" s="69" t="n"/>
+      <c r="K30" s="69" t="n"/>
+      <c r="L30" s="69" t="n"/>
+      <c r="M30" s="69" t="n"/>
+      <c r="N30" s="69" t="n"/>
+      <c r="O30" s="69" t="n"/>
+      <c r="P30" s="69" t="n"/>
+      <c r="Q30" s="70" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1" s="62">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n"/>
+      <c r="C31" s="83" t="n"/>
+      <c r="D31" s="83" t="n"/>
+      <c r="E31" s="83" t="n"/>
+      <c r="F31" s="83" t="n"/>
+      <c r="G31" s="83" t="n"/>
+      <c r="H31" s="83" t="n"/>
+      <c r="I31" s="83" t="n"/>
+      <c r="J31" s="83" t="n"/>
+      <c r="K31" s="83" t="n"/>
+      <c r="L31" s="83" t="n"/>
+      <c r="M31" s="83" t="n"/>
+      <c r="N31" s="83" t="n"/>
+      <c r="O31" s="83" t="n"/>
+      <c r="P31" s="83" t="n"/>
+      <c r="Q31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="20.15" customHeight="1" s="62">
+      <c r="A32" s="84" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="63" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="63" t="n"/>
+      <c r="H32" s="63" t="n"/>
+      <c r="I32" s="63" t="n"/>
+      <c r="J32" s="63" t="n"/>
+      <c r="K32" s="63" t="n"/>
+      <c r="L32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="63" t="n"/>
+      <c r="O32" s="63" t="n"/>
+      <c r="P32" s="63" t="n"/>
+      <c r="Q32" s="78" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1" s="62">
+      <c r="A33" s="84" t="n"/>
+      <c r="B33" s="63" t="n"/>
+      <c r="C33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="E33" s="63" t="n"/>
+      <c r="F33" s="63" t="n"/>
+      <c r="G33" s="63" t="n"/>
+      <c r="H33" s="63" t="n"/>
+      <c r="I33" s="63" t="n"/>
+      <c r="J33" s="63" t="n"/>
+      <c r="K33" s="63" t="n"/>
+      <c r="L33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="63" t="n"/>
+      <c r="O33" s="63" t="n"/>
+      <c r="P33" s="63" t="n"/>
+      <c r="Q33" s="78" t="n"/>
+    </row>
+    <row r="34" ht="20.15" customHeight="1" s="62">
+      <c r="A34" s="85" t="n"/>
+      <c r="B34" s="81" t="n"/>
+      <c r="C34" s="81" t="n"/>
+      <c r="D34" s="81" t="n"/>
+      <c r="E34" s="81" t="n"/>
+      <c r="F34" s="81" t="n"/>
+      <c r="G34" s="81" t="n"/>
+      <c r="H34" s="81" t="n"/>
+      <c r="I34" s="81" t="n"/>
+      <c r="J34" s="81" t="n"/>
+      <c r="K34" s="81" t="n"/>
+      <c r="L34" s="81" t="n"/>
+      <c r="M34" s="81" t="n"/>
+      <c r="N34" s="81" t="n"/>
+      <c r="O34" s="81" t="n"/>
+      <c r="P34" s="81" t="n"/>
+      <c r="Q34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A35" s="6" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A37" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="95"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="5.58203125" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col width="5.58203125" customWidth="1" style="43" min="1" max="8"/>
+    <col width="5.83203125" bestFit="1" customWidth="1" style="43" min="9" max="9"/>
+    <col width="5.58203125" customWidth="1" style="43" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="62">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
+      <c r="E1" s="63" t="n"/>
+      <c r="F1" s="63" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="63" t="n"/>
+      <c r="I1" s="63" t="n"/>
+      <c r="J1" s="63" t="n"/>
+      <c r="K1" s="63" t="n"/>
+      <c r="L1" s="63" t="n"/>
+      <c r="M1" s="63" t="n"/>
+      <c r="N1" s="63" t="n"/>
+      <c r="O1" s="63" t="n"/>
+      <c r="P1" s="63" t="n"/>
+      <c r="Q1" s="63" t="n"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="62">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>株式会社D</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="M2" s="63" t="n"/>
+      <c r="N2" s="15" t="inlineStr">
+        <is>
+          <t>202407-003</t>
+        </is>
+      </c>
+      <c r="O2" s="63" t="n"/>
+      <c r="P2" s="63" t="n"/>
+      <c r="Q2" s="63" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="62">
+      <c r="A3" s="64" t="n"/>
+      <c r="B3" s="64" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="I3" s="63" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="M3" s="63" t="n"/>
+      <c r="N3" s="65" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+      <c r="O3" s="63" t="n"/>
+      <c r="P3" s="63" t="n"/>
+      <c r="Q3" s="63" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" s="62">
+      <c r="A4" s="44" t="inlineStr">
+        <is>
+          <t>経営企画部</t>
+        </is>
+      </c>
+      <c r="B4" s="66" t="n"/>
+      <c r="C4" s="66" t="n"/>
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n"/>
+      <c r="F4" s="66" t="n"/>
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="J4" s="36" t="n"/>
+      <c r="K4" s="36" t="n"/>
+      <c r="L4" s="36" t="n"/>
+      <c r="M4" s="36" t="n"/>
+      <c r="N4" s="36" t="n"/>
+      <c r="O4" s="36" t="n"/>
+      <c r="P4" s="36" t="n"/>
+      <c r="Q4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="20.15" customHeight="1" s="62">
+      <c r="A5" s="2" t="n"/>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="63" t="n"/>
+      <c r="N5" s="61" t="n"/>
+      <c r="O5" s="61" t="n"/>
+      <c r="P5" s="61" t="n"/>
+      <c r="Q5" s="61" t="n"/>
+    </row>
+    <row r="6" ht="20.15" customHeight="1" s="62">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="B6" s="63" t="n"/>
+      <c r="C6" s="63" t="n"/>
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="63" t="n"/>
+      <c r="H6" s="63" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+      <c r="L6" s="63" t="n"/>
+      <c r="M6" s="63" t="n"/>
+      <c r="N6" s="63" t="n"/>
+      <c r="O6" s="63" t="n"/>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="63" t="n"/>
+    </row>
+    <row r="7" ht="20.15" customHeight="1" s="62">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="45" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="64" t="n"/>
+      <c r="E7" s="64" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="43" t="n"/>
+      <c r="I7" s="43" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+      <c r="L7" s="63" t="n"/>
+      <c r="M7" s="63" t="n"/>
+      <c r="N7" s="63" t="n"/>
+      <c r="O7" s="63" t="n"/>
+      <c r="P7" s="63" t="n"/>
+      <c r="Q7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="20.15" customHeight="1" s="62">
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="n"/>
+      <c r="M8" s="15" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+      <c r="N8" s="63" t="n"/>
+      <c r="O8" s="63" t="n"/>
+      <c r="P8" s="63" t="n"/>
+      <c r="Q8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="20.15" customHeight="1" s="62">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="14" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="L9" s="63" t="n"/>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+      <c r="N9" s="63" t="n"/>
+      <c r="O9" s="63" t="n"/>
+      <c r="P9" s="63" t="n"/>
+      <c r="Q9" s="63" t="n"/>
+    </row>
+    <row r="10" ht="20.15" customHeight="1" s="62" thickBot="1">
+      <c r="A10" s="68" t="n"/>
+      <c r="B10" s="68" t="n"/>
+      <c r="C10" s="68" t="n"/>
+      <c r="D10" s="68" t="n"/>
+      <c r="E10" s="68" t="n"/>
+      <c r="F10" s="68" t="n"/>
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="68" t="n"/>
+      <c r="I10" s="68" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="L10" s="63" t="n"/>
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+      <c r="N10" s="63" t="n"/>
+      <c r="O10" s="63" t="n"/>
+      <c r="P10" s="63" t="n"/>
+      <c r="Q10" s="63" t="n"/>
+    </row>
+    <row r="11" ht="20.15" customHeight="1" s="62" thickTop="1">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="L11" s="63" t="n"/>
+      <c r="M11" s="15" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+      <c r="N11" s="63" t="n"/>
+      <c r="O11" s="63" t="n"/>
+      <c r="P11" s="63" t="n"/>
+      <c r="Q11" s="63" t="n"/>
+    </row>
+    <row r="12" ht="10" customHeight="1" s="62">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" s="62">
+      <c r="A13" s="20" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="69" t="n"/>
+      <c r="C13" s="69" t="n"/>
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="69" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="69" t="n"/>
+      <c r="H13" s="69" t="n"/>
+      <c r="I13" s="70" t="n"/>
+      <c r="J13" s="20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="70" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="69" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="69" t="n"/>
+      <c r="Q13" s="70" t="n"/>
+    </row>
+    <row r="14" ht="20.15" customHeight="1" s="62">
+      <c r="A14" s="71" t="inlineStr">
+        <is>
+          <t>サポート料金</t>
+        </is>
+      </c>
+      <c r="B14" s="69" t="n"/>
+      <c r="C14" s="69" t="n"/>
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="69" t="n"/>
+      <c r="F14" s="69" t="n"/>
+      <c r="G14" s="69" t="n"/>
+      <c r="H14" s="69" t="n"/>
+      <c r="I14" s="70" t="n"/>
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="46" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
+      </c>
+      <c r="L14" s="72" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M14" s="69" t="n"/>
+      <c r="N14" s="70" t="n"/>
+      <c r="O14" s="73" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P14" s="74" t="n"/>
+      <c r="Q14" s="75" t="n"/>
+    </row>
+    <row r="15" ht="20.15" customHeight="1" s="62">
+      <c r="A15" s="71" t="inlineStr">
+        <is>
+          <t>広告掲載費</t>
+        </is>
+      </c>
+      <c r="B15" s="69" t="n"/>
+      <c r="C15" s="69" t="n"/>
+      <c r="D15" s="69" t="n"/>
+      <c r="E15" s="69" t="n"/>
+      <c r="F15" s="69" t="n"/>
+      <c r="G15" s="69" t="n"/>
+      <c r="H15" s="69" t="n"/>
+      <c r="I15" s="70" t="n"/>
+      <c r="J15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="L15" s="72" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M15" s="69" t="n"/>
+      <c r="N15" s="70" t="n"/>
+      <c r="O15" s="73" t="n">
+        <v>60000</v>
+      </c>
+      <c r="P15" s="74" t="n"/>
+      <c r="Q15" s="75" t="n"/>
+    </row>
+    <row r="16" ht="20.15" customHeight="1" s="62">
+      <c r="A16" s="71" t="n"/>
+      <c r="B16" s="69" t="n"/>
+      <c r="C16" s="69" t="n"/>
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="69" t="n"/>
+      <c r="F16" s="69" t="n"/>
+      <c r="G16" s="69" t="n"/>
+      <c r="H16" s="69" t="n"/>
+      <c r="I16" s="70" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="72" t="n"/>
+      <c r="M16" s="69" t="n"/>
+      <c r="N16" s="70" t="n"/>
+      <c r="O16" s="73" t="n"/>
+      <c r="P16" s="74" t="n"/>
+      <c r="Q16" s="75" t="n"/>
+    </row>
+    <row r="17" ht="20.15" customHeight="1" s="62">
+      <c r="A17" s="71" t="n"/>
+      <c r="B17" s="69" t="n"/>
+      <c r="C17" s="69" t="n"/>
+      <c r="D17" s="69" t="n"/>
+      <c r="E17" s="69" t="n"/>
+      <c r="F17" s="69" t="n"/>
+      <c r="G17" s="69" t="n"/>
+      <c r="H17" s="69" t="n"/>
+      <c r="I17" s="70" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="72" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="70" t="n"/>
+      <c r="O17" s="73" t="n"/>
+      <c r="P17" s="74" t="n"/>
+      <c r="Q17" s="75" t="n"/>
+    </row>
+    <row r="18" ht="20.15" customHeight="1" s="62">
+      <c r="A18" s="71" t="n"/>
+      <c r="B18" s="69" t="n"/>
+      <c r="C18" s="69" t="n"/>
+      <c r="D18" s="69" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="69" t="n"/>
+      <c r="H18" s="69" t="n"/>
+      <c r="I18" s="70" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="72" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="70" t="n"/>
+      <c r="O18" s="73" t="n"/>
+      <c r="P18" s="74" t="n"/>
+      <c r="Q18" s="75" t="n"/>
+    </row>
+    <row r="19" ht="20.15" customHeight="1" s="62">
+      <c r="A19" s="71" t="n"/>
+      <c r="B19" s="69" t="n"/>
+      <c r="C19" s="69" t="n"/>
+      <c r="D19" s="69" t="n"/>
+      <c r="E19" s="69" t="n"/>
+      <c r="F19" s="69" t="n"/>
+      <c r="G19" s="69" t="n"/>
+      <c r="H19" s="69" t="n"/>
+      <c r="I19" s="70" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="72" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="70" t="n"/>
+      <c r="O19" s="73" t="n"/>
+      <c r="P19" s="74" t="n"/>
+      <c r="Q19" s="75" t="n"/>
+    </row>
+    <row r="20" ht="20.15" customHeight="1" s="62">
+      <c r="A20" s="71" t="n"/>
+      <c r="B20" s="69" t="n"/>
+      <c r="C20" s="69" t="n"/>
+      <c r="D20" s="69" t="n"/>
+      <c r="E20" s="69" t="n"/>
+      <c r="F20" s="69" t="n"/>
+      <c r="G20" s="69" t="n"/>
+      <c r="H20" s="69" t="n"/>
+      <c r="I20" s="70" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="72" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="70" t="n"/>
+      <c r="O20" s="73" t="n"/>
+      <c r="P20" s="74" t="n"/>
+      <c r="Q20" s="75" t="n"/>
+    </row>
+    <row r="21" ht="20.15" customHeight="1" s="62">
+      <c r="A21" s="71" t="n"/>
+      <c r="B21" s="69" t="n"/>
+      <c r="C21" s="69" t="n"/>
+      <c r="D21" s="69" t="n"/>
+      <c r="E21" s="69" t="n"/>
+      <c r="F21" s="69" t="n"/>
+      <c r="G21" s="69" t="n"/>
+      <c r="H21" s="69" t="n"/>
+      <c r="I21" s="70" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="72" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="70" t="n"/>
+      <c r="O21" s="73" t="n"/>
+      <c r="P21" s="74" t="n"/>
+      <c r="Q21" s="75" t="n"/>
+    </row>
+    <row r="22" ht="20.15" customHeight="1" s="62">
+      <c r="A22" s="71" t="n"/>
+      <c r="B22" s="69" t="n"/>
+      <c r="C22" s="69" t="n"/>
+      <c r="D22" s="69" t="n"/>
+      <c r="E22" s="69" t="n"/>
+      <c r="F22" s="69" t="n"/>
+      <c r="G22" s="69" t="n"/>
+      <c r="H22" s="69" t="n"/>
+      <c r="I22" s="70" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="8" t="n"/>
+      <c r="L22" s="72" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="70" t="n"/>
+      <c r="O22" s="73" t="n"/>
+      <c r="P22" s="74" t="n"/>
+      <c r="Q22" s="75" t="n"/>
+    </row>
+    <row r="23" ht="20.15" customHeight="1" s="62">
+      <c r="A23" s="71" t="n"/>
+      <c r="B23" s="69" t="n"/>
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="70" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="8" t="n"/>
+      <c r="L23" s="72" t="n"/>
+      <c r="M23" s="69" t="n"/>
+      <c r="N23" s="70" t="n"/>
+      <c r="O23" s="73" t="n"/>
+      <c r="P23" s="74" t="n"/>
+      <c r="Q23" s="75" t="n"/>
+    </row>
+    <row r="24" ht="20.15" customHeight="1" s="62">
+      <c r="A24" s="71" t="n"/>
+      <c r="B24" s="69" t="n"/>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n"/>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
+      <c r="G24" s="69" t="n"/>
+      <c r="H24" s="69" t="n"/>
+      <c r="I24" s="70" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="72" t="n"/>
+      <c r="M24" s="69" t="n"/>
+      <c r="N24" s="70" t="n"/>
+      <c r="O24" s="73" t="str"/>
+      <c r="P24" s="74" t="n"/>
+      <c r="Q24" s="75" t="n"/>
+    </row>
+    <row r="25" ht="20.15" customHeight="1" s="62">
+      <c r="A25" s="71" t="n"/>
+      <c r="B25" s="69" t="n"/>
+      <c r="C25" s="69" t="n"/>
+      <c r="D25" s="69" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="69" t="n"/>
+      <c r="G25" s="69" t="n"/>
+      <c r="H25" s="69" t="n"/>
+      <c r="I25" s="70" t="n"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="72" t="n"/>
+      <c r="M25" s="69" t="n"/>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="73" t="str"/>
+      <c r="P25" s="74" t="n"/>
+      <c r="Q25" s="75" t="n"/>
+    </row>
+    <row r="26" ht="20.15" customHeight="1" s="62">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="36" t="n"/>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="36" t="n"/>
+      <c r="F26" s="36" t="n"/>
+      <c r="G26" s="36" t="n"/>
+      <c r="H26" s="36" t="n"/>
+      <c r="I26" s="36" t="n"/>
+      <c r="J26" s="41" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="76" t="n"/>
+      <c r="L26" s="77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="74" t="n"/>
+      <c r="N26" s="74" t="n"/>
+      <c r="O26" s="74" t="n"/>
+      <c r="P26" s="74" t="n"/>
+      <c r="Q26" s="75" t="n"/>
+    </row>
+    <row r="27" ht="20.15" customHeight="1" s="62">
+      <c r="A27" s="36" t="n"/>
+      <c r="B27" s="36" t="n"/>
+      <c r="C27" s="36" t="n"/>
+      <c r="D27" s="36" t="n"/>
+      <c r="E27" s="36" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="36" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="38" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="78" t="n"/>
+      <c r="L27" s="79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="74" t="n"/>
+      <c r="N27" s="74" t="n"/>
+      <c r="O27" s="74" t="n"/>
+      <c r="P27" s="74" t="n"/>
+      <c r="Q27" s="75" t="n"/>
+    </row>
+    <row r="28" ht="20.15" customHeight="1" s="62">
+      <c r="A28" s="36" t="n"/>
+      <c r="B28" s="36" t="n"/>
+      <c r="C28" s="63" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="E28" s="63" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="36" t="n"/>
+      <c r="H28" s="36" t="n"/>
+      <c r="I28" s="36" t="n"/>
+      <c r="J28" s="38" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="78" t="n"/>
+      <c r="L28" s="80" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="74" t="n"/>
+      <c r="N28" s="74" t="n"/>
+      <c r="O28" s="74" t="n"/>
+      <c r="P28" s="74" t="n"/>
+      <c r="Q28" s="75" t="n"/>
+    </row>
+    <row r="29" ht="20.15" customHeight="1" s="62">
+      <c r="A29" s="36" t="n"/>
+      <c r="B29" s="39" t="n"/>
+      <c r="C29" s="81" t="n"/>
+      <c r="D29" s="81" t="n"/>
+      <c r="E29" s="81" t="n"/>
+      <c r="F29" s="81" t="n"/>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="36" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="36" t="n"/>
+      <c r="N29" s="36" t="n"/>
+      <c r="O29" s="36" t="n"/>
+      <c r="P29" s="36" t="n"/>
+      <c r="Q29" s="36" t="n"/>
+    </row>
+    <row r="30" ht="20.15" customHeight="1" s="62">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="69" t="n"/>
+      <c r="C30" s="69" t="n"/>
+      <c r="D30" s="69" t="n"/>
+      <c r="E30" s="69" t="n"/>
+      <c r="F30" s="69" t="n"/>
+      <c r="G30" s="69" t="n"/>
+      <c r="H30" s="69" t="n"/>
+      <c r="I30" s="69" t="n"/>
+      <c r="J30" s="69" t="n"/>
+      <c r="K30" s="69" t="n"/>
+      <c r="L30" s="69" t="n"/>
+      <c r="M30" s="69" t="n"/>
+      <c r="N30" s="69" t="n"/>
+      <c r="O30" s="69" t="n"/>
+      <c r="P30" s="69" t="n"/>
+      <c r="Q30" s="70" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1" s="62">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n"/>
+      <c r="C31" s="83" t="n"/>
+      <c r="D31" s="83" t="n"/>
+      <c r="E31" s="83" t="n"/>
+      <c r="F31" s="83" t="n"/>
+      <c r="G31" s="83" t="n"/>
+      <c r="H31" s="83" t="n"/>
+      <c r="I31" s="83" t="n"/>
+      <c r="J31" s="83" t="n"/>
+      <c r="K31" s="83" t="n"/>
+      <c r="L31" s="83" t="n"/>
+      <c r="M31" s="83" t="n"/>
+      <c r="N31" s="83" t="n"/>
+      <c r="O31" s="83" t="n"/>
+      <c r="P31" s="83" t="n"/>
+      <c r="Q31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="20.15" customHeight="1" s="62">
+      <c r="A32" s="84" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="63" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="63" t="n"/>
+      <c r="H32" s="63" t="n"/>
+      <c r="I32" s="63" t="n"/>
+      <c r="J32" s="63" t="n"/>
+      <c r="K32" s="63" t="n"/>
+      <c r="L32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="63" t="n"/>
+      <c r="O32" s="63" t="n"/>
+      <c r="P32" s="63" t="n"/>
+      <c r="Q32" s="78" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1" s="62">
+      <c r="A33" s="84" t="n"/>
+      <c r="B33" s="63" t="n"/>
+      <c r="C33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="E33" s="63" t="n"/>
+      <c r="F33" s="63" t="n"/>
+      <c r="G33" s="63" t="n"/>
+      <c r="H33" s="63" t="n"/>
+      <c r="I33" s="63" t="n"/>
+      <c r="J33" s="63" t="n"/>
+      <c r="K33" s="63" t="n"/>
+      <c r="L33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="63" t="n"/>
+      <c r="O33" s="63" t="n"/>
+      <c r="P33" s="63" t="n"/>
+      <c r="Q33" s="78" t="n"/>
+    </row>
+    <row r="34" ht="20.15" customHeight="1" s="62">
+      <c r="A34" s="85" t="n"/>
+      <c r="B34" s="81" t="n"/>
+      <c r="C34" s="81" t="n"/>
+      <c r="D34" s="81" t="n"/>
+      <c r="E34" s="81" t="n"/>
+      <c r="F34" s="81" t="n"/>
+      <c r="G34" s="81" t="n"/>
+      <c r="H34" s="81" t="n"/>
+      <c r="I34" s="81" t="n"/>
+      <c r="J34" s="81" t="n"/>
+      <c r="K34" s="81" t="n"/>
+      <c r="L34" s="81" t="n"/>
+      <c r="M34" s="81" t="n"/>
+      <c r="N34" s="81" t="n"/>
+      <c r="O34" s="81" t="n"/>
+      <c r="P34" s="81" t="n"/>
+      <c r="Q34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A35" s="6" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A37" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="95"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="5.58203125" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col width="5.58203125" customWidth="1" style="43" min="1" max="8"/>
+    <col width="5.83203125" bestFit="1" customWidth="1" style="43" min="9" max="9"/>
+    <col width="5.58203125" customWidth="1" style="43" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="62">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
+      <c r="E1" s="63" t="n"/>
+      <c r="F1" s="63" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="63" t="n"/>
+      <c r="I1" s="63" t="n"/>
+      <c r="J1" s="63" t="n"/>
+      <c r="K1" s="63" t="n"/>
+      <c r="L1" s="63" t="n"/>
+      <c r="M1" s="63" t="n"/>
+      <c r="N1" s="63" t="n"/>
+      <c r="O1" s="63" t="n"/>
+      <c r="P1" s="63" t="n"/>
+      <c r="Q1" s="63" t="n"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="62">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>株式会社E</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="M2" s="63" t="n"/>
+      <c r="N2" s="15" t="inlineStr">
+        <is>
+          <t>202407-004</t>
+        </is>
+      </c>
+      <c r="O2" s="63" t="n"/>
+      <c r="P2" s="63" t="n"/>
+      <c r="Q2" s="63" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="62">
+      <c r="A3" s="64" t="n"/>
+      <c r="B3" s="64" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="I3" s="63" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="M3" s="63" t="n"/>
+      <c r="N3" s="65" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+      <c r="O3" s="63" t="n"/>
+      <c r="P3" s="63" t="n"/>
+      <c r="Q3" s="63" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" s="62">
+      <c r="A4" s="44" t="inlineStr">
+        <is>
+          <t>人事課</t>
+        </is>
+      </c>
+      <c r="B4" s="66" t="n"/>
+      <c r="C4" s="66" t="n"/>
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n"/>
+      <c r="F4" s="66" t="n"/>
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="J4" s="36" t="n"/>
+      <c r="K4" s="36" t="n"/>
+      <c r="L4" s="36" t="n"/>
+      <c r="M4" s="36" t="n"/>
+      <c r="N4" s="36" t="n"/>
+      <c r="O4" s="36" t="n"/>
+      <c r="P4" s="36" t="n"/>
+      <c r="Q4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="20.15" customHeight="1" s="62">
+      <c r="A5" s="2" t="n"/>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="63" t="n"/>
+      <c r="N5" s="61" t="n"/>
+      <c r="O5" s="61" t="n"/>
+      <c r="P5" s="61" t="n"/>
+      <c r="Q5" s="61" t="n"/>
+    </row>
+    <row r="6" ht="20.15" customHeight="1" s="62">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="B6" s="63" t="n"/>
+      <c r="C6" s="63" t="n"/>
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="63" t="n"/>
+      <c r="H6" s="63" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+      <c r="L6" s="63" t="n"/>
+      <c r="M6" s="63" t="n"/>
+      <c r="N6" s="63" t="n"/>
+      <c r="O6" s="63" t="n"/>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="63" t="n"/>
+    </row>
+    <row r="7" ht="20.15" customHeight="1" s="62">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="45" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="64" t="n"/>
+      <c r="E7" s="64" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="43" t="n"/>
+      <c r="I7" s="43" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+      <c r="L7" s="63" t="n"/>
+      <c r="M7" s="63" t="n"/>
+      <c r="N7" s="63" t="n"/>
+      <c r="O7" s="63" t="n"/>
+      <c r="P7" s="63" t="n"/>
+      <c r="Q7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="20.15" customHeight="1" s="62">
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="n"/>
+      <c r="M8" s="15" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+      <c r="N8" s="63" t="n"/>
+      <c r="O8" s="63" t="n"/>
+      <c r="P8" s="63" t="n"/>
+      <c r="Q8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="20.15" customHeight="1" s="62">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="14" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="L9" s="63" t="n"/>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+      <c r="N9" s="63" t="n"/>
+      <c r="O9" s="63" t="n"/>
+      <c r="P9" s="63" t="n"/>
+      <c r="Q9" s="63" t="n"/>
+    </row>
+    <row r="10" ht="20.15" customHeight="1" s="62" thickBot="1">
+      <c r="A10" s="68" t="n"/>
+      <c r="B10" s="68" t="n"/>
+      <c r="C10" s="68" t="n"/>
+      <c r="D10" s="68" t="n"/>
+      <c r="E10" s="68" t="n"/>
+      <c r="F10" s="68" t="n"/>
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="68" t="n"/>
+      <c r="I10" s="68" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="L10" s="63" t="n"/>
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+      <c r="N10" s="63" t="n"/>
+      <c r="O10" s="63" t="n"/>
+      <c r="P10" s="63" t="n"/>
+      <c r="Q10" s="63" t="n"/>
+    </row>
+    <row r="11" ht="20.15" customHeight="1" s="62" thickTop="1">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="L11" s="63" t="n"/>
+      <c r="M11" s="15" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+      <c r="N11" s="63" t="n"/>
+      <c r="O11" s="63" t="n"/>
+      <c r="P11" s="63" t="n"/>
+      <c r="Q11" s="63" t="n"/>
+    </row>
+    <row r="12" ht="10" customHeight="1" s="62">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" s="62">
+      <c r="A13" s="20" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="69" t="n"/>
+      <c r="C13" s="69" t="n"/>
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="69" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="69" t="n"/>
+      <c r="H13" s="69" t="n"/>
+      <c r="I13" s="70" t="n"/>
+      <c r="J13" s="20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="70" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="69" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="69" t="n"/>
+      <c r="Q13" s="70" t="n"/>
+    </row>
+    <row r="14" ht="20.15" customHeight="1" s="62">
+      <c r="A14" s="71" t="inlineStr">
+        <is>
+          <t>研修費用</t>
+        </is>
+      </c>
+      <c r="B14" s="69" t="n"/>
+      <c r="C14" s="69" t="n"/>
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="69" t="n"/>
+      <c r="F14" s="69" t="n"/>
+      <c r="G14" s="69" t="n"/>
+      <c r="H14" s="69" t="n"/>
+      <c r="I14" s="70" t="n"/>
+      <c r="J14" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="46" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L14" s="72" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="69" t="n"/>
+      <c r="N14" s="70" t="n"/>
+      <c r="O14" s="73" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P14" s="74" t="n"/>
+      <c r="Q14" s="75" t="n"/>
+    </row>
+    <row r="15" ht="20.15" customHeight="1" s="62">
+      <c r="A15" s="71" t="inlineStr">
+        <is>
+          <t>レンタル料</t>
+        </is>
+      </c>
+      <c r="B15" s="69" t="n"/>
+      <c r="C15" s="69" t="n"/>
+      <c r="D15" s="69" t="n"/>
+      <c r="E15" s="69" t="n"/>
+      <c r="F15" s="69" t="n"/>
+      <c r="G15" s="69" t="n"/>
+      <c r="H15" s="69" t="n"/>
+      <c r="I15" s="70" t="n"/>
+      <c r="J15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="L15" s="72" t="n">
+        <v>300000</v>
+      </c>
+      <c r="M15" s="69" t="n"/>
+      <c r="N15" s="70" t="n"/>
+      <c r="O15" s="73" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P15" s="74" t="n"/>
+      <c r="Q15" s="75" t="n"/>
+    </row>
+    <row r="16" ht="20.15" customHeight="1" s="62">
+      <c r="A16" s="71" t="n"/>
+      <c r="B16" s="69" t="n"/>
+      <c r="C16" s="69" t="n"/>
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="69" t="n"/>
+      <c r="F16" s="69" t="n"/>
+      <c r="G16" s="69" t="n"/>
+      <c r="H16" s="69" t="n"/>
+      <c r="I16" s="70" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="72" t="n"/>
+      <c r="M16" s="69" t="n"/>
+      <c r="N16" s="70" t="n"/>
+      <c r="O16" s="73" t="n"/>
+      <c r="P16" s="74" t="n"/>
+      <c r="Q16" s="75" t="n"/>
+    </row>
+    <row r="17" ht="20.15" customHeight="1" s="62">
+      <c r="A17" s="71" t="n"/>
+      <c r="B17" s="69" t="n"/>
+      <c r="C17" s="69" t="n"/>
+      <c r="D17" s="69" t="n"/>
+      <c r="E17" s="69" t="n"/>
+      <c r="F17" s="69" t="n"/>
+      <c r="G17" s="69" t="n"/>
+      <c r="H17" s="69" t="n"/>
+      <c r="I17" s="70" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="72" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="70" t="n"/>
+      <c r="O17" s="73" t="n"/>
+      <c r="P17" s="74" t="n"/>
+      <c r="Q17" s="75" t="n"/>
+    </row>
+    <row r="18" ht="20.15" customHeight="1" s="62">
+      <c r="A18" s="71" t="n"/>
+      <c r="B18" s="69" t="n"/>
+      <c r="C18" s="69" t="n"/>
+      <c r="D18" s="69" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="69" t="n"/>
+      <c r="H18" s="69" t="n"/>
+      <c r="I18" s="70" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="72" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="70" t="n"/>
+      <c r="O18" s="73" t="n"/>
+      <c r="P18" s="74" t="n"/>
+      <c r="Q18" s="75" t="n"/>
+    </row>
+    <row r="19" ht="20.15" customHeight="1" s="62">
+      <c r="A19" s="71" t="n"/>
+      <c r="B19" s="69" t="n"/>
+      <c r="C19" s="69" t="n"/>
+      <c r="D19" s="69" t="n"/>
+      <c r="E19" s="69" t="n"/>
+      <c r="F19" s="69" t="n"/>
+      <c r="G19" s="69" t="n"/>
+      <c r="H19" s="69" t="n"/>
+      <c r="I19" s="70" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="72" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="70" t="n"/>
+      <c r="O19" s="73" t="n"/>
+      <c r="P19" s="74" t="n"/>
+      <c r="Q19" s="75" t="n"/>
+    </row>
+    <row r="20" ht="20.15" customHeight="1" s="62">
+      <c r="A20" s="71" t="n"/>
+      <c r="B20" s="69" t="n"/>
+      <c r="C20" s="69" t="n"/>
+      <c r="D20" s="69" t="n"/>
+      <c r="E20" s="69" t="n"/>
+      <c r="F20" s="69" t="n"/>
+      <c r="G20" s="69" t="n"/>
+      <c r="H20" s="69" t="n"/>
+      <c r="I20" s="70" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="72" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="70" t="n"/>
+      <c r="O20" s="73" t="n"/>
+      <c r="P20" s="74" t="n"/>
+      <c r="Q20" s="75" t="n"/>
+    </row>
+    <row r="21" ht="20.15" customHeight="1" s="62">
+      <c r="A21" s="71" t="n"/>
+      <c r="B21" s="69" t="n"/>
+      <c r="C21" s="69" t="n"/>
+      <c r="D21" s="69" t="n"/>
+      <c r="E21" s="69" t="n"/>
+      <c r="F21" s="69" t="n"/>
+      <c r="G21" s="69" t="n"/>
+      <c r="H21" s="69" t="n"/>
+      <c r="I21" s="70" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="72" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="70" t="n"/>
+      <c r="O21" s="73" t="n"/>
+      <c r="P21" s="74" t="n"/>
+      <c r="Q21" s="75" t="n"/>
+    </row>
+    <row r="22" ht="20.15" customHeight="1" s="62">
+      <c r="A22" s="71" t="n"/>
+      <c r="B22" s="69" t="n"/>
+      <c r="C22" s="69" t="n"/>
+      <c r="D22" s="69" t="n"/>
+      <c r="E22" s="69" t="n"/>
+      <c r="F22" s="69" t="n"/>
+      <c r="G22" s="69" t="n"/>
+      <c r="H22" s="69" t="n"/>
+      <c r="I22" s="70" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="8" t="n"/>
+      <c r="L22" s="72" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="70" t="n"/>
+      <c r="O22" s="73" t="n"/>
+      <c r="P22" s="74" t="n"/>
+      <c r="Q22" s="75" t="n"/>
+    </row>
+    <row r="23" ht="20.15" customHeight="1" s="62">
+      <c r="A23" s="71" t="n"/>
+      <c r="B23" s="69" t="n"/>
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="70" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="8" t="n"/>
+      <c r="L23" s="72" t="n"/>
+      <c r="M23" s="69" t="n"/>
+      <c r="N23" s="70" t="n"/>
+      <c r="O23" s="73" t="n"/>
+      <c r="P23" s="74" t="n"/>
+      <c r="Q23" s="75" t="n"/>
+    </row>
+    <row r="24" ht="20.15" customHeight="1" s="62">
+      <c r="A24" s="71" t="n"/>
+      <c r="B24" s="69" t="n"/>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n"/>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
+      <c r="G24" s="69" t="n"/>
+      <c r="H24" s="69" t="n"/>
+      <c r="I24" s="70" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="72" t="n"/>
+      <c r="M24" s="69" t="n"/>
+      <c r="N24" s="70" t="n"/>
+      <c r="O24" s="73" t="str"/>
+      <c r="P24" s="74" t="n"/>
+      <c r="Q24" s="75" t="n"/>
+    </row>
+    <row r="25" ht="20.15" customHeight="1" s="62">
+      <c r="A25" s="71" t="n"/>
+      <c r="B25" s="69" t="n"/>
+      <c r="C25" s="69" t="n"/>
+      <c r="D25" s="69" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="69" t="n"/>
+      <c r="G25" s="69" t="n"/>
+      <c r="H25" s="69" t="n"/>
+      <c r="I25" s="70" t="n"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="72" t="n"/>
+      <c r="M25" s="69" t="n"/>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="73" t="str"/>
+      <c r="P25" s="74" t="n"/>
+      <c r="Q25" s="75" t="n"/>
+    </row>
+    <row r="26" ht="20.15" customHeight="1" s="62">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="36" t="n"/>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="36" t="n"/>
+      <c r="F26" s="36" t="n"/>
+      <c r="G26" s="36" t="n"/>
+      <c r="H26" s="36" t="n"/>
+      <c r="I26" s="36" t="n"/>
+      <c r="J26" s="41" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="76" t="n"/>
+      <c r="L26" s="77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="74" t="n"/>
+      <c r="N26" s="74" t="n"/>
+      <c r="O26" s="74" t="n"/>
+      <c r="P26" s="74" t="n"/>
+      <c r="Q26" s="75" t="n"/>
+    </row>
+    <row r="27" ht="20.15" customHeight="1" s="62">
+      <c r="A27" s="36" t="n"/>
+      <c r="B27" s="36" t="n"/>
+      <c r="C27" s="36" t="n"/>
+      <c r="D27" s="36" t="n"/>
+      <c r="E27" s="36" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="36" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="38" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="78" t="n"/>
+      <c r="L27" s="79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="74" t="n"/>
+      <c r="N27" s="74" t="n"/>
+      <c r="O27" s="74" t="n"/>
+      <c r="P27" s="74" t="n"/>
+      <c r="Q27" s="75" t="n"/>
+    </row>
+    <row r="28" ht="20.15" customHeight="1" s="62">
+      <c r="A28" s="36" t="n"/>
+      <c r="B28" s="36" t="n"/>
+      <c r="C28" s="63" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="E28" s="63" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="36" t="n"/>
+      <c r="H28" s="36" t="n"/>
+      <c r="I28" s="36" t="n"/>
+      <c r="J28" s="38" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="78" t="n"/>
+      <c r="L28" s="80" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="74" t="n"/>
+      <c r="N28" s="74" t="n"/>
+      <c r="O28" s="74" t="n"/>
+      <c r="P28" s="74" t="n"/>
+      <c r="Q28" s="75" t="n"/>
+    </row>
+    <row r="29" ht="20.15" customHeight="1" s="62">
+      <c r="A29" s="36" t="n"/>
+      <c r="B29" s="39" t="n"/>
+      <c r="C29" s="81" t="n"/>
+      <c r="D29" s="81" t="n"/>
+      <c r="E29" s="81" t="n"/>
+      <c r="F29" s="81" t="n"/>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="36" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="36" t="n"/>
+      <c r="N29" s="36" t="n"/>
+      <c r="O29" s="36" t="n"/>
+      <c r="P29" s="36" t="n"/>
+      <c r="Q29" s="36" t="n"/>
+    </row>
+    <row r="30" ht="20.15" customHeight="1" s="62">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="69" t="n"/>
+      <c r="C30" s="69" t="n"/>
+      <c r="D30" s="69" t="n"/>
+      <c r="E30" s="69" t="n"/>
+      <c r="F30" s="69" t="n"/>
+      <c r="G30" s="69" t="n"/>
+      <c r="H30" s="69" t="n"/>
+      <c r="I30" s="69" t="n"/>
+      <c r="J30" s="69" t="n"/>
+      <c r="K30" s="69" t="n"/>
+      <c r="L30" s="69" t="n"/>
+      <c r="M30" s="69" t="n"/>
+      <c r="N30" s="69" t="n"/>
+      <c r="O30" s="69" t="n"/>
+      <c r="P30" s="69" t="n"/>
+      <c r="Q30" s="70" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1" s="62">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n"/>
+      <c r="C31" s="83" t="n"/>
+      <c r="D31" s="83" t="n"/>
+      <c r="E31" s="83" t="n"/>
+      <c r="F31" s="83" t="n"/>
+      <c r="G31" s="83" t="n"/>
+      <c r="H31" s="83" t="n"/>
+      <c r="I31" s="83" t="n"/>
+      <c r="J31" s="83" t="n"/>
+      <c r="K31" s="83" t="n"/>
+      <c r="L31" s="83" t="n"/>
+      <c r="M31" s="83" t="n"/>
+      <c r="N31" s="83" t="n"/>
+      <c r="O31" s="83" t="n"/>
+      <c r="P31" s="83" t="n"/>
+      <c r="Q31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="20.15" customHeight="1" s="62">
+      <c r="A32" s="84" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="63" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="63" t="n"/>
+      <c r="H32" s="63" t="n"/>
+      <c r="I32" s="63" t="n"/>
+      <c r="J32" s="63" t="n"/>
+      <c r="K32" s="63" t="n"/>
+      <c r="L32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="63" t="n"/>
+      <c r="O32" s="63" t="n"/>
+      <c r="P32" s="63" t="n"/>
+      <c r="Q32" s="78" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1" s="62">
+      <c r="A33" s="84" t="n"/>
+      <c r="B33" s="63" t="n"/>
+      <c r="C33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="E33" s="63" t="n"/>
+      <c r="F33" s="63" t="n"/>
+      <c r="G33" s="63" t="n"/>
+      <c r="H33" s="63" t="n"/>
+      <c r="I33" s="63" t="n"/>
+      <c r="J33" s="63" t="n"/>
+      <c r="K33" s="63" t="n"/>
+      <c r="L33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="63" t="n"/>
+      <c r="O33" s="63" t="n"/>
+      <c r="P33" s="63" t="n"/>
+      <c r="Q33" s="78" t="n"/>
+    </row>
+    <row r="34" ht="20.15" customHeight="1" s="62">
+      <c r="A34" s="85" t="n"/>
+      <c r="B34" s="81" t="n"/>
+      <c r="C34" s="81" t="n"/>
+      <c r="D34" s="81" t="n"/>
+      <c r="E34" s="81" t="n"/>
+      <c r="F34" s="81" t="n"/>
+      <c r="G34" s="81" t="n"/>
+      <c r="H34" s="81" t="n"/>
+      <c r="I34" s="81" t="n"/>
+      <c r="J34" s="81" t="n"/>
+      <c r="K34" s="81" t="n"/>
+      <c r="L34" s="81" t="n"/>
+      <c r="M34" s="81" t="n"/>
+      <c r="N34" s="81" t="n"/>
+      <c r="O34" s="81" t="n"/>
+      <c r="P34" s="81" t="n"/>
+      <c r="Q34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A35" s="6" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A37" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="95"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="5.58203125" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col width="5.58203125" customWidth="1" style="43" min="1" max="8"/>
+    <col width="5.83203125" bestFit="1" customWidth="1" style="43" min="9" max="9"/>
+    <col width="5.58203125" customWidth="1" style="43" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="62">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
+      <c r="E1" s="63" t="n"/>
+      <c r="F1" s="63" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="63" t="n"/>
+      <c r="I1" s="63" t="n"/>
+      <c r="J1" s="63" t="n"/>
+      <c r="K1" s="63" t="n"/>
+      <c r="L1" s="63" t="n"/>
+      <c r="M1" s="63" t="n"/>
+      <c r="N1" s="63" t="n"/>
+      <c r="O1" s="63" t="n"/>
+      <c r="P1" s="63" t="n"/>
+      <c r="Q1" s="63" t="n"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" s="62">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>株式会社F</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="M2" s="63" t="n"/>
+      <c r="N2" s="15" t="inlineStr">
+        <is>
+          <t>202407-005</t>
+        </is>
+      </c>
+      <c r="O2" s="63" t="n"/>
+      <c r="P2" s="63" t="n"/>
+      <c r="Q2" s="63" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="62">
+      <c r="A3" s="64" t="n"/>
+      <c r="B3" s="64" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="I3" s="63" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="M3" s="63" t="n"/>
+      <c r="N3" s="65" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+      <c r="O3" s="63" t="n"/>
+      <c r="P3" s="63" t="n"/>
+      <c r="Q3" s="63" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" s="62">
+      <c r="A4" s="44" t="inlineStr">
+        <is>
+          <t>総務部  会津若松</t>
+        </is>
+      </c>
+      <c r="B4" s="66" t="n"/>
+      <c r="C4" s="66" t="n"/>
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n"/>
+      <c r="F4" s="66" t="n"/>
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="J4" s="36" t="n"/>
+      <c r="K4" s="36" t="n"/>
+      <c r="L4" s="36" t="n"/>
+      <c r="M4" s="36" t="n"/>
+      <c r="N4" s="36" t="n"/>
+      <c r="O4" s="36" t="n"/>
+      <c r="P4" s="36" t="n"/>
+      <c r="Q4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="20.15" customHeight="1" s="62">
+      <c r="A5" s="2" t="n"/>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="63" t="n"/>
+      <c r="N5" s="61" t="n"/>
+      <c r="O5" s="61" t="n"/>
+      <c r="P5" s="61" t="n"/>
+      <c r="Q5" s="61" t="n"/>
+    </row>
+    <row r="6" ht="20.15" customHeight="1" s="62">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="B6" s="63" t="n"/>
+      <c r="C6" s="63" t="n"/>
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="63" t="n"/>
+      <c r="H6" s="63" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+      <c r="L6" s="63" t="n"/>
+      <c r="M6" s="63" t="n"/>
+      <c r="N6" s="63" t="n"/>
+      <c r="O6" s="63" t="n"/>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="63" t="n"/>
+    </row>
+    <row r="7" ht="20.15" customHeight="1" s="62">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="45" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="64" t="n"/>
+      <c r="E7" s="64" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="43" t="n"/>
+      <c r="I7" s="43" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="15" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+      <c r="L7" s="63" t="n"/>
+      <c r="M7" s="63" t="n"/>
+      <c r="N7" s="63" t="n"/>
+      <c r="O7" s="63" t="n"/>
+      <c r="P7" s="63" t="n"/>
+      <c r="Q7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="20.15" customHeight="1" s="62">
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="n"/>
+      <c r="M8" s="15" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+      <c r="N8" s="63" t="n"/>
+      <c r="O8" s="63" t="n"/>
+      <c r="P8" s="63" t="n"/>
+      <c r="Q8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="20.15" customHeight="1" s="62">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="14" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="L9" s="63" t="n"/>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+      <c r="N9" s="63" t="n"/>
+      <c r="O9" s="63" t="n"/>
+      <c r="P9" s="63" t="n"/>
+      <c r="Q9" s="63" t="n"/>
+    </row>
+    <row r="10" ht="20.15" customHeight="1" s="62" thickBot="1">
+      <c r="A10" s="68" t="n"/>
+      <c r="B10" s="68" t="n"/>
+      <c r="C10" s="68" t="n"/>
+      <c r="D10" s="68" t="n"/>
+      <c r="E10" s="68" t="n"/>
+      <c r="F10" s="68" t="n"/>
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="68" t="n"/>
+      <c r="I10" s="68" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="L10" s="63" t="n"/>
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+      <c r="N10" s="63" t="n"/>
+      <c r="O10" s="63" t="n"/>
+      <c r="P10" s="63" t="n"/>
+      <c r="Q10" s="63" t="n"/>
+    </row>
+    <row r="11" ht="20.15" customHeight="1" s="62" thickTop="1">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="L11" s="63" t="n"/>
+      <c r="M11" s="15" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+      <c r="N11" s="63" t="n"/>
+      <c r="O11" s="63" t="n"/>
+      <c r="P11" s="63" t="n"/>
+      <c r="Q11" s="63" t="n"/>
+    </row>
+    <row r="12" ht="10" customHeight="1" s="62">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" s="62">
+      <c r="A13" s="20" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="69" t="n"/>
+      <c r="C13" s="69" t="n"/>
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="69" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="69" t="n"/>
+      <c r="H13" s="69" t="n"/>
+      <c r="I13" s="70" t="n"/>
+      <c r="J13" s="20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="70" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="69" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="69" t="n"/>
+      <c r="Q13" s="70" t="n"/>
+    </row>
+    <row r="14" ht="20.15" customHeight="1" s="62">
+      <c r="A14" s="71" t="inlineStr">
+        <is>
+          <t>レンタル料</t>
+        </is>
+      </c>
+      <c r="B14" s="69" t="n"/>
+      <c r="C14" s="69" t="n"/>
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="69" t="n"/>
+      <c r="F14" s="69" t="n"/>
+      <c r="G14" s="69" t="n"/>
+      <c r="H14" s="69" t="n"/>
+      <c r="I14" s="70" t="n"/>
+      <c r="J14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="46" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="L14" s="72" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M14" s="69" t="n"/>
+      <c r="N14" s="70" t="n"/>
+      <c r="O14" s="73" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P14" s="74" t="n"/>
+      <c r="Q14" s="75" t="n"/>
+    </row>
+    <row r="15" ht="20.15" customHeight="1" s="62">
+      <c r="A15" s="71" t="inlineStr">
+        <is>
+          <t>商品販売代金</t>
+        </is>
+      </c>
+      <c r="B15" s="69" t="n"/>
+      <c r="C15" s="69" t="n"/>
+      <c r="D15" s="69" t="n"/>
+      <c r="E15" s="69" t="n"/>
+      <c r="F15" s="69" t="n"/>
+      <c r="G15" s="69" t="n"/>
+      <c r="H15" s="69" t="n"/>
+      <c r="I15" s="70" t="n"/>
+      <c r="J15" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L15" s="72" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M15" s="69" t="n"/>
+      <c r="N15" s="70" t="n"/>
+      <c r="O15" s="73" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P15" s="74" t="n"/>
+      <c r="Q15" s="75" t="n"/>
+    </row>
+    <row r="16" ht="20.15" customHeight="1" s="62">
+      <c r="A16" s="71" t="n"/>
+      <c r="B16" s="69" t="n"/>
+      <c r="C16" s="69" t="n"/>
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="69" t="n"/>
+      <c r="F16" s="69" t="n"/>
+      <c r="G16" s="69" t="n"/>
+      <c r="H16" s="69" t="n"/>
+      <c r="I16" s="70" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="72" t="n"/>
+      <c r="M16" s="69" t="n"/>
+      <c r="N16" s="70" t="n"/>
+      <c r="O16" s="73" t="n"/>
+      <c r="P16" s="74" t="n"/>
+      <c r="Q16" s="75" t="n"/>
+    </row>
+    <row r="17" ht="20.15" customHeight="1" s="62">
+      <c r="A17" s="71" t="n"/>
+      <c r="B17" s="69" t="n"/>
+      <c r="C17" s="69" t="n"/>
+      <c r="D17" s="69" t="n"/>
+      <c r="E17" s="69" t="n"/>
+      <c r="F17" s="69" t="n"/>
+      <c r="G17" s="69" t="n"/>
+      <c r="H17" s="69" t="n"/>
+      <c r="I17" s="70" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="72" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="70" t="n"/>
+      <c r="O17" s="73" t="n"/>
+      <c r="P17" s="74" t="n"/>
+      <c r="Q17" s="75" t="n"/>
+    </row>
+    <row r="18" ht="20.15" customHeight="1" s="62">
+      <c r="A18" s="71" t="n"/>
+      <c r="B18" s="69" t="n"/>
+      <c r="C18" s="69" t="n"/>
+      <c r="D18" s="69" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="69" t="n"/>
+      <c r="H18" s="69" t="n"/>
+      <c r="I18" s="70" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="72" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="70" t="n"/>
+      <c r="O18" s="73" t="n"/>
+      <c r="P18" s="74" t="n"/>
+      <c r="Q18" s="75" t="n"/>
+    </row>
+    <row r="19" ht="20.15" customHeight="1" s="62">
+      <c r="A19" s="71" t="n"/>
+      <c r="B19" s="69" t="n"/>
+      <c r="C19" s="69" t="n"/>
+      <c r="D19" s="69" t="n"/>
+      <c r="E19" s="69" t="n"/>
+      <c r="F19" s="69" t="n"/>
+      <c r="G19" s="69" t="n"/>
+      <c r="H19" s="69" t="n"/>
+      <c r="I19" s="70" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="72" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="70" t="n"/>
+      <c r="O19" s="73" t="n"/>
+      <c r="P19" s="74" t="n"/>
+      <c r="Q19" s="75" t="n"/>
+    </row>
+    <row r="20" ht="20.15" customHeight="1" s="62">
+      <c r="A20" s="71" t="n"/>
+      <c r="B20" s="69" t="n"/>
+      <c r="C20" s="69" t="n"/>
+      <c r="D20" s="69" t="n"/>
+      <c r="E20" s="69" t="n"/>
+      <c r="F20" s="69" t="n"/>
+      <c r="G20" s="69" t="n"/>
+      <c r="H20" s="69" t="n"/>
+      <c r="I20" s="70" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="72" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="70" t="n"/>
+      <c r="O20" s="73" t="n"/>
+      <c r="P20" s="74" t="n"/>
+      <c r="Q20" s="75" t="n"/>
+    </row>
+    <row r="21" ht="20.15" customHeight="1" s="62">
+      <c r="A21" s="71" t="n"/>
+      <c r="B21" s="69" t="n"/>
+      <c r="C21" s="69" t="n"/>
+      <c r="D21" s="69" t="n"/>
+      <c r="E21" s="69" t="n"/>
+      <c r="F21" s="69" t="n"/>
+      <c r="G21" s="69" t="n"/>
+      <c r="H21" s="69" t="n"/>
+      <c r="I21" s="70" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="72" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="70" t="n"/>
+      <c r="O21" s="73" t="n"/>
+      <c r="P21" s="74" t="n"/>
+      <c r="Q21" s="75" t="n"/>
+    </row>
+    <row r="22" ht="20.15" customHeight="1" s="62">
+      <c r="A22" s="71" t="n"/>
+      <c r="B22" s="69" t="n"/>
+      <c r="C22" s="69" t="n"/>
+      <c r="D22" s="69" t="n"/>
+      <c r="E22" s="69" t="n"/>
+      <c r="F22" s="69" t="n"/>
+      <c r="G22" s="69" t="n"/>
+      <c r="H22" s="69" t="n"/>
+      <c r="I22" s="70" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="8" t="n"/>
+      <c r="L22" s="72" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="70" t="n"/>
+      <c r="O22" s="73" t="n"/>
+      <c r="P22" s="74" t="n"/>
+      <c r="Q22" s="75" t="n"/>
+    </row>
+    <row r="23" ht="20.15" customHeight="1" s="62">
+      <c r="A23" s="71" t="n"/>
+      <c r="B23" s="69" t="n"/>
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="70" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="8" t="n"/>
+      <c r="L23" s="72" t="n"/>
+      <c r="M23" s="69" t="n"/>
+      <c r="N23" s="70" t="n"/>
+      <c r="O23" s="73" t="n"/>
+      <c r="P23" s="74" t="n"/>
+      <c r="Q23" s="75" t="n"/>
+    </row>
+    <row r="24" ht="20.15" customHeight="1" s="62">
+      <c r="A24" s="71" t="n"/>
+      <c r="B24" s="69" t="n"/>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n"/>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
+      <c r="G24" s="69" t="n"/>
+      <c r="H24" s="69" t="n"/>
+      <c r="I24" s="70" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="72" t="n"/>
+      <c r="M24" s="69" t="n"/>
+      <c r="N24" s="70" t="n"/>
+      <c r="O24" s="73" t="str"/>
+      <c r="P24" s="74" t="n"/>
+      <c r="Q24" s="75" t="n"/>
+    </row>
+    <row r="25" ht="20.15" customHeight="1" s="62">
+      <c r="A25" s="71" t="n"/>
+      <c r="B25" s="69" t="n"/>
+      <c r="C25" s="69" t="n"/>
+      <c r="D25" s="69" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="69" t="n"/>
+      <c r="G25" s="69" t="n"/>
+      <c r="H25" s="69" t="n"/>
+      <c r="I25" s="70" t="n"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="72" t="n"/>
+      <c r="M25" s="69" t="n"/>
+      <c r="N25" s="70" t="n"/>
+      <c r="O25" s="73" t="str"/>
+      <c r="P25" s="74" t="n"/>
+      <c r="Q25" s="75" t="n"/>
+    </row>
+    <row r="26" ht="20.15" customHeight="1" s="62">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="36" t="n"/>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="36" t="n"/>
+      <c r="F26" s="36" t="n"/>
+      <c r="G26" s="36" t="n"/>
+      <c r="H26" s="36" t="n"/>
+      <c r="I26" s="36" t="n"/>
+      <c r="J26" s="41" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="76" t="n"/>
+      <c r="L26" s="77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="74" t="n"/>
+      <c r="N26" s="74" t="n"/>
+      <c r="O26" s="74" t="n"/>
+      <c r="P26" s="74" t="n"/>
+      <c r="Q26" s="75" t="n"/>
+    </row>
+    <row r="27" ht="20.15" customHeight="1" s="62">
+      <c r="A27" s="36" t="n"/>
+      <c r="B27" s="36" t="n"/>
+      <c r="C27" s="36" t="n"/>
+      <c r="D27" s="36" t="n"/>
+      <c r="E27" s="36" t="n"/>
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="36" t="n"/>
+      <c r="H27" s="36" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="38" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="78" t="n"/>
+      <c r="L27" s="79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="74" t="n"/>
+      <c r="N27" s="74" t="n"/>
+      <c r="O27" s="74" t="n"/>
+      <c r="P27" s="74" t="n"/>
+      <c r="Q27" s="75" t="n"/>
+    </row>
+    <row r="28" ht="20.15" customHeight="1" s="62">
+      <c r="A28" s="36" t="n"/>
+      <c r="B28" s="36" t="n"/>
+      <c r="C28" s="63" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="E28" s="63" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="36" t="n"/>
+      <c r="H28" s="36" t="n"/>
+      <c r="I28" s="36" t="n"/>
+      <c r="J28" s="38" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="78" t="n"/>
+      <c r="L28" s="80" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="74" t="n"/>
+      <c r="N28" s="74" t="n"/>
+      <c r="O28" s="74" t="n"/>
+      <c r="P28" s="74" t="n"/>
+      <c r="Q28" s="75" t="n"/>
+    </row>
+    <row r="29" ht="20.15" customHeight="1" s="62">
+      <c r="A29" s="36" t="n"/>
+      <c r="B29" s="39" t="n"/>
+      <c r="C29" s="81" t="n"/>
+      <c r="D29" s="81" t="n"/>
+      <c r="E29" s="81" t="n"/>
+      <c r="F29" s="81" t="n"/>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="36" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="36" t="n"/>
+      <c r="N29" s="36" t="n"/>
+      <c r="O29" s="36" t="n"/>
+      <c r="P29" s="36" t="n"/>
+      <c r="Q29" s="36" t="n"/>
+    </row>
+    <row r="30" ht="20.15" customHeight="1" s="62">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="69" t="n"/>
+      <c r="C30" s="69" t="n"/>
+      <c r="D30" s="69" t="n"/>
+      <c r="E30" s="69" t="n"/>
+      <c r="F30" s="69" t="n"/>
+      <c r="G30" s="69" t="n"/>
+      <c r="H30" s="69" t="n"/>
+      <c r="I30" s="69" t="n"/>
+      <c r="J30" s="69" t="n"/>
+      <c r="K30" s="69" t="n"/>
+      <c r="L30" s="69" t="n"/>
+      <c r="M30" s="69" t="n"/>
+      <c r="N30" s="69" t="n"/>
+      <c r="O30" s="69" t="n"/>
+      <c r="P30" s="69" t="n"/>
+      <c r="Q30" s="70" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1" s="62">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n"/>
+      <c r="C31" s="83" t="n"/>
+      <c r="D31" s="83" t="n"/>
+      <c r="E31" s="83" t="n"/>
+      <c r="F31" s="83" t="n"/>
+      <c r="G31" s="83" t="n"/>
+      <c r="H31" s="83" t="n"/>
+      <c r="I31" s="83" t="n"/>
+      <c r="J31" s="83" t="n"/>
+      <c r="K31" s="83" t="n"/>
+      <c r="L31" s="83" t="n"/>
+      <c r="M31" s="83" t="n"/>
+      <c r="N31" s="83" t="n"/>
+      <c r="O31" s="83" t="n"/>
+      <c r="P31" s="83" t="n"/>
+      <c r="Q31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="20.15" customHeight="1" s="62">
+      <c r="A32" s="84" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="63" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="63" t="n"/>
+      <c r="H32" s="63" t="n"/>
+      <c r="I32" s="63" t="n"/>
+      <c r="J32" s="63" t="n"/>
+      <c r="K32" s="63" t="n"/>
+      <c r="L32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="63" t="n"/>
+      <c r="O32" s="63" t="n"/>
+      <c r="P32" s="63" t="n"/>
+      <c r="Q32" s="78" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1" s="62">
+      <c r="A33" s="84" t="n"/>
+      <c r="B33" s="63" t="n"/>
+      <c r="C33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="E33" s="63" t="n"/>
+      <c r="F33" s="63" t="n"/>
+      <c r="G33" s="63" t="n"/>
+      <c r="H33" s="63" t="n"/>
+      <c r="I33" s="63" t="n"/>
+      <c r="J33" s="63" t="n"/>
+      <c r="K33" s="63" t="n"/>
+      <c r="L33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="63" t="n"/>
+      <c r="O33" s="63" t="n"/>
+      <c r="P33" s="63" t="n"/>
+      <c r="Q33" s="78" t="n"/>
+    </row>
+    <row r="34" ht="20.15" customHeight="1" s="62">
+      <c r="A34" s="85" t="n"/>
+      <c r="B34" s="81" t="n"/>
+      <c r="C34" s="81" t="n"/>
+      <c r="D34" s="81" t="n"/>
+      <c r="E34" s="81" t="n"/>
+      <c r="F34" s="81" t="n"/>
+      <c r="G34" s="81" t="n"/>
+      <c r="H34" s="81" t="n"/>
+      <c r="I34" s="81" t="n"/>
+      <c r="J34" s="81" t="n"/>
+      <c r="K34" s="81" t="n"/>
+      <c r="L34" s="81" t="n"/>
+      <c r="M34" s="81" t="n"/>
+      <c r="N34" s="81" t="n"/>
+      <c r="O34" s="81" t="n"/>
+      <c r="P34" s="81" t="n"/>
+      <c r="Q34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A35" s="6" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customFormat="1" customHeight="1" s="36">
+      <c r="A37" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="95"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>